--- a/data-raw/crosstabs/DataHaven2021_FairfieldCounty_Crosstabs.xlsx
+++ b/data-raw/crosstabs/DataHaven2021_FairfieldCounty_Crosstabs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkAbraham\DataHaven Dropbox\2021 Wellbeing Survey\data\Crosstabs\In Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkAbraham\DataHaven Dropbox\2021 Wellbeing Survey\data\Crosstabs\Final Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44936E66-D7DA-4D95-851C-A8BF84C8905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B565D-39B6-434B-A52B-803DE6555987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1200" windowWidth="20770" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FairfieldCounty" sheetId="2" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="629">
   <si>
     <t>Gender</t>
   </si>
@@ -2095,6 +2095,12 @@
   <si>
     <t xml:space="preserve">Considering all types of alcoholic beverages, how many times during the past 30 days did you have 4/5 or more drinks on an occasion? </t>
   </si>
+  <si>
+    <t>*Note: The survey collects detailed race/ethnicity data, but estimates for all groups are not shown here due to small sample sizes. Refer to DataHaven's Town Equity Reports for more detail.</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity*</t>
+  </si>
 </sst>
 </file>
 
@@ -2103,7 +2109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2238,8 +2244,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2419,6 +2433,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2596,7 +2616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,8 +2647,8 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2638,13 +2658,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2692,588 +2718,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3552,7 +2997,7 @@
   <dimension ref="A1:T1900"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1547" sqref="K1547"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3614,7 +3059,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>2</v>
+        <v>628</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -3694,11 +3139,11 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -4028,26 +3473,28 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="A10" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -4168,11 +3615,11 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -4710,28 +4157,28 @@
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
@@ -4852,11 +4299,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5450,11 +4897,11 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -6048,11 +5495,11 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -6646,11 +6093,11 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -7244,11 +6691,11 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -7842,11 +7289,11 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -8440,11 +7887,11 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -9038,11 +8485,11 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -9636,11 +9083,11 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -10234,11 +9681,11 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -10832,11 +10279,11 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -11430,11 +10877,11 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -12028,11 +11475,11 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -12688,11 +12135,11 @@
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A185" s="12" t="s">
+      <c r="A185" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -13348,11 +12795,11 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -13884,11 +13331,11 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -14544,11 +13991,11 @@
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -15018,11 +14465,11 @@
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A232" s="12" t="s">
+      <c r="A232" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -15492,11 +14939,11 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A242" s="12" t="s">
+      <c r="A242" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -16075,28 +15522,28 @@
       <c r="T252" s="6"/>
     </row>
     <row r="253" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="16" t="s">
+      <c r="A253" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="B253" s="16"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="17"/>
-      <c r="M253" s="17"/>
-      <c r="N253" s="17"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="17"/>
-      <c r="Q253" s="17"/>
-      <c r="R253" s="17"/>
-      <c r="S253" s="17"/>
-      <c r="T253" s="17"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" s="18"/>
+      <c r="K253" s="18"/>
+      <c r="L253" s="18"/>
+      <c r="M253" s="18"/>
+      <c r="N253" s="18"/>
+      <c r="O253" s="18"/>
+      <c r="P253" s="18"/>
+      <c r="Q253" s="18"/>
+      <c r="R253" s="18"/>
+      <c r="S253" s="18"/>
+      <c r="T253" s="18"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="s">
@@ -16217,11 +15664,11 @@
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A257" s="12" t="s">
+      <c r="A257" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B257" s="12"/>
-      <c r="C257" s="12"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="16"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -16815,11 +16262,11 @@
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A269" s="12" t="s">
+      <c r="A269" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -17413,11 +16860,11 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A281" s="12" t="s">
+      <c r="A281" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
+      <c r="B281" s="16"/>
+      <c r="C281" s="16"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -18011,11 +17458,11 @@
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -18609,11 +18056,11 @@
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A305" s="12" t="s">
+      <c r="A305" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
+      <c r="B305" s="16"/>
+      <c r="C305" s="16"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -19089,28 +18536,28 @@
       <c r="T313" s="6"/>
     </row>
     <row r="314" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="16" t="s">
+      <c r="A314" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B314" s="16"/>
-      <c r="C314" s="17"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="17"/>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="17"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="17"/>
-      <c r="K314" s="17"/>
-      <c r="L314" s="17"/>
-      <c r="M314" s="17"/>
-      <c r="N314" s="17"/>
-      <c r="O314" s="17"/>
-      <c r="P314" s="17"/>
-      <c r="Q314" s="17"/>
-      <c r="R314" s="17"/>
-      <c r="S314" s="17"/>
-      <c r="T314" s="17"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="18"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
+      <c r="H314" s="18"/>
+      <c r="I314" s="18"/>
+      <c r="J314" s="18"/>
+      <c r="K314" s="18"/>
+      <c r="L314" s="18"/>
+      <c r="M314" s="18"/>
+      <c r="N314" s="18"/>
+      <c r="O314" s="18"/>
+      <c r="P314" s="18"/>
+      <c r="Q314" s="18"/>
+      <c r="R314" s="18"/>
+      <c r="S314" s="18"/>
+      <c r="T314" s="18"/>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="s">
@@ -19185,11 +18632,11 @@
       <c r="T317" s="5"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A318" s="12" t="s">
+      <c r="A318" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="B318" s="16"/>
+      <c r="C318" s="16"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -19527,11 +18974,11 @@
       <c r="T330" s="5"/>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
+      <c r="B331" s="16"/>
+      <c r="C331" s="16"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -19869,11 +19316,11 @@
       <c r="T343" s="5"/>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A344" s="12" t="s">
+      <c r="A344" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -20211,11 +19658,11 @@
       <c r="T356" s="5"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A357" s="12" t="s">
+      <c r="A357" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B357" s="12"/>
-      <c r="C357" s="12"/>
+      <c r="B357" s="16"/>
+      <c r="C357" s="16"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
@@ -20553,11 +20000,11 @@
       <c r="T369" s="5"/>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A370" s="12" t="s">
+      <c r="A370" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B370" s="12"/>
-      <c r="C370" s="12"/>
+      <c r="B370" s="16"/>
+      <c r="C370" s="16"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
@@ -20941,11 +20388,11 @@
       </c>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A383" s="12" t="s">
+      <c r="A383" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
+      <c r="B383" s="16"/>
+      <c r="C383" s="16"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
@@ -21601,11 +21048,11 @@
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A396" s="12" t="s">
+      <c r="A396" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -22261,11 +21708,11 @@
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A409" s="12" t="s">
+      <c r="A409" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B409" s="12"/>
-      <c r="C409" s="12"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
@@ -22921,11 +22368,11 @@
       </c>
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A422" s="12" t="s">
+      <c r="A422" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B422" s="12"/>
-      <c r="C422" s="12"/>
+      <c r="B422" s="16"/>
+      <c r="C422" s="16"/>
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
@@ -23581,11 +23028,11 @@
       </c>
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A435" s="12" t="s">
+      <c r="A435" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B435" s="12"/>
-      <c r="C435" s="12"/>
+      <c r="B435" s="16"/>
+      <c r="C435" s="16"/>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
@@ -24123,28 +23570,28 @@
       <c r="T444" s="6"/>
     </row>
     <row r="445" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="16" t="s">
+      <c r="A445" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B445" s="16"/>
-      <c r="C445" s="17"/>
-      <c r="D445" s="17"/>
-      <c r="E445" s="17"/>
-      <c r="F445" s="17"/>
-      <c r="G445" s="17"/>
-      <c r="H445" s="17"/>
-      <c r="I445" s="17"/>
-      <c r="J445" s="17"/>
-      <c r="K445" s="17"/>
-      <c r="L445" s="17"/>
-      <c r="M445" s="17"/>
-      <c r="N445" s="17"/>
-      <c r="O445" s="17"/>
-      <c r="P445" s="17"/>
-      <c r="Q445" s="17"/>
-      <c r="R445" s="17"/>
-      <c r="S445" s="17"/>
-      <c r="T445" s="17"/>
+      <c r="B445" s="17"/>
+      <c r="C445" s="18"/>
+      <c r="D445" s="18"/>
+      <c r="E445" s="18"/>
+      <c r="F445" s="18"/>
+      <c r="G445" s="18"/>
+      <c r="H445" s="18"/>
+      <c r="I445" s="18"/>
+      <c r="J445" s="18"/>
+      <c r="K445" s="18"/>
+      <c r="L445" s="18"/>
+      <c r="M445" s="18"/>
+      <c r="N445" s="18"/>
+      <c r="O445" s="18"/>
+      <c r="P445" s="18"/>
+      <c r="Q445" s="18"/>
+      <c r="R445" s="18"/>
+      <c r="S445" s="18"/>
+      <c r="T445" s="18"/>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
@@ -24241,11 +23688,11 @@
       </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A448" s="12" t="s">
+      <c r="A448" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B448" s="12"/>
-      <c r="C448" s="12"/>
+      <c r="B448" s="16"/>
+      <c r="C448" s="16"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -25049,11 +24496,11 @@
       </c>
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A464" s="12" t="s">
+      <c r="A464" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B464" s="12"/>
-      <c r="C464" s="12"/>
+      <c r="B464" s="16"/>
+      <c r="C464" s="16"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -25523,11 +24970,11 @@
       </c>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A474" s="12" t="s">
+      <c r="A474" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B474" s="12"/>
-      <c r="C474" s="12"/>
+      <c r="B474" s="16"/>
+      <c r="C474" s="16"/>
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -25879,28 +25326,28 @@
       <c r="T480" s="6"/>
     </row>
     <row r="481" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="16" t="s">
+      <c r="A481" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B481" s="16"/>
-      <c r="C481" s="17"/>
-      <c r="D481" s="17"/>
-      <c r="E481" s="17"/>
-      <c r="F481" s="17"/>
-      <c r="G481" s="17"/>
-      <c r="H481" s="17"/>
-      <c r="I481" s="17"/>
-      <c r="J481" s="17"/>
-      <c r="K481" s="17"/>
-      <c r="L481" s="17"/>
-      <c r="M481" s="17"/>
-      <c r="N481" s="17"/>
-      <c r="O481" s="17"/>
-      <c r="P481" s="17"/>
-      <c r="Q481" s="17"/>
-      <c r="R481" s="17"/>
-      <c r="S481" s="17"/>
-      <c r="T481" s="17"/>
+      <c r="B481" s="17"/>
+      <c r="C481" s="18"/>
+      <c r="D481" s="18"/>
+      <c r="E481" s="18"/>
+      <c r="F481" s="18"/>
+      <c r="G481" s="18"/>
+      <c r="H481" s="18"/>
+      <c r="I481" s="18"/>
+      <c r="J481" s="18"/>
+      <c r="K481" s="18"/>
+      <c r="L481" s="18"/>
+      <c r="M481" s="18"/>
+      <c r="N481" s="18"/>
+      <c r="O481" s="18"/>
+      <c r="P481" s="18"/>
+      <c r="Q481" s="18"/>
+      <c r="R481" s="18"/>
+      <c r="S481" s="18"/>
+      <c r="T481" s="18"/>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
@@ -25951,11 +25398,11 @@
       <c r="T483" s="5"/>
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A484" s="12" t="s">
+      <c r="A484" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B484" s="12"/>
-      <c r="C484" s="12"/>
+      <c r="B484" s="16"/>
+      <c r="C484" s="16"/>
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -26395,11 +25842,11 @@
       </c>
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A499" s="12" t="s">
+      <c r="A499" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B499" s="12"/>
-      <c r="C499" s="12"/>
+      <c r="B499" s="16"/>
+      <c r="C499" s="16"/>
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
@@ -26869,11 +26316,11 @@
       </c>
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A509" s="12" t="s">
+      <c r="A509" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B509" s="12"/>
-      <c r="C509" s="12"/>
+      <c r="B509" s="16"/>
+      <c r="C509" s="16"/>
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
@@ -27343,11 +26790,11 @@
       </c>
     </row>
     <row r="519" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A519" s="12" t="s">
+      <c r="A519" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B519" s="12"/>
-      <c r="C519" s="12"/>
+      <c r="B519" s="16"/>
+      <c r="C519" s="16"/>
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
@@ -27920,11 +27367,11 @@
       </c>
     </row>
     <row r="531" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A531" s="12" t="s">
+      <c r="A531" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B531" s="12"/>
-      <c r="C531" s="12"/>
+      <c r="B531" s="16"/>
+      <c r="C531" s="16"/>
       <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
@@ -28642,11 +28089,11 @@
       </c>
     </row>
     <row r="545" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A545" s="12" t="s">
+      <c r="A545" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B545" s="12"/>
-      <c r="C545" s="12"/>
+      <c r="B545" s="16"/>
+      <c r="C545" s="16"/>
       <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
@@ -29116,11 +28563,11 @@
       </c>
     </row>
     <row r="555" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A555" s="12" t="s">
+      <c r="A555" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B555" s="12"/>
-      <c r="C555" s="12"/>
+      <c r="B555" s="16"/>
+      <c r="C555" s="16"/>
       <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
@@ -29590,11 +29037,11 @@
       </c>
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A565" s="12" t="s">
+      <c r="A565" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B565" s="12"/>
-      <c r="C565" s="12"/>
+      <c r="B565" s="16"/>
+      <c r="C565" s="16"/>
       <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
@@ -30312,11 +29759,11 @@
       </c>
     </row>
     <row r="579" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A579" s="12" t="s">
+      <c r="A579" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B579" s="12"/>
-      <c r="C579" s="12"/>
+      <c r="B579" s="16"/>
+      <c r="C579" s="16"/>
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
@@ -30786,11 +30233,11 @@
       </c>
     </row>
     <row r="589" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A589" s="12" t="s">
+      <c r="A589" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B589" s="12"/>
-      <c r="C589" s="12"/>
+      <c r="B589" s="16"/>
+      <c r="C589" s="16"/>
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
@@ -31238,11 +30685,11 @@
       <c r="T599" s="5"/>
     </row>
     <row r="600" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A600" s="12" t="s">
+      <c r="A600" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B600" s="12"/>
-      <c r="C600" s="12"/>
+      <c r="B600" s="16"/>
+      <c r="C600" s="16"/>
       <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
@@ -31496,11 +30943,11 @@
       <c r="T609" s="5"/>
     </row>
     <row r="610" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A610" s="12" t="s">
+      <c r="A610" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B610" s="12"/>
-      <c r="C610" s="12"/>
+      <c r="B610" s="16"/>
+      <c r="C610" s="16"/>
       <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
@@ -31754,11 +31201,11 @@
       <c r="T619" s="5"/>
     </row>
     <row r="620" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A620" s="12" t="s">
+      <c r="A620" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B620" s="12"/>
-      <c r="C620" s="12"/>
+      <c r="B620" s="16"/>
+      <c r="C620" s="16"/>
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
@@ -32012,11 +31459,11 @@
       <c r="T629" s="5"/>
     </row>
     <row r="630" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A630" s="12" t="s">
+      <c r="A630" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B630" s="12"/>
-      <c r="C630" s="12"/>
+      <c r="B630" s="16"/>
+      <c r="C630" s="16"/>
       <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
@@ -32270,11 +31717,11 @@
       <c r="T639" s="5"/>
     </row>
     <row r="640" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A640" s="12" t="s">
+      <c r="A640" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B640" s="12"/>
-      <c r="C640" s="12"/>
+      <c r="B640" s="16"/>
+      <c r="C640" s="16"/>
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
@@ -32528,11 +31975,11 @@
       <c r="T649" s="5"/>
     </row>
     <row r="650" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A650" s="12" t="s">
+      <c r="A650" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B650" s="12"/>
-      <c r="C650" s="12"/>
+      <c r="B650" s="16"/>
+      <c r="C650" s="16"/>
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
@@ -32786,11 +32233,11 @@
       <c r="T659" s="5"/>
     </row>
     <row r="660" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A660" s="12" t="s">
+      <c r="A660" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B660" s="12"/>
-      <c r="C660" s="12"/>
+      <c r="B660" s="16"/>
+      <c r="C660" s="16"/>
       <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
@@ -33044,11 +32491,11 @@
       <c r="T669" s="5"/>
     </row>
     <row r="670" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A670" s="12" t="s">
+      <c r="A670" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B670" s="12"/>
-      <c r="C670" s="12"/>
+      <c r="B670" s="16"/>
+      <c r="C670" s="16"/>
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
@@ -33302,11 +32749,11 @@
       <c r="T679" s="5"/>
     </row>
     <row r="680" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A680" s="12" t="s">
+      <c r="A680" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B680" s="12"/>
-      <c r="C680" s="12"/>
+      <c r="B680" s="16"/>
+      <c r="C680" s="16"/>
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
@@ -33606,11 +33053,11 @@
       </c>
     </row>
     <row r="690" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A690" s="12" t="s">
+      <c r="A690" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B690" s="12"/>
-      <c r="C690" s="12"/>
+      <c r="B690" s="16"/>
+      <c r="C690" s="16"/>
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
@@ -34080,11 +33527,11 @@
       </c>
     </row>
     <row r="700" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A700" s="12" t="s">
+      <c r="A700" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B700" s="12"/>
-      <c r="C700" s="12"/>
+      <c r="B700" s="16"/>
+      <c r="C700" s="16"/>
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
@@ -34657,11 +34104,11 @@
       </c>
     </row>
     <row r="712" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A712" s="12" t="s">
+      <c r="A712" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B712" s="12"/>
-      <c r="C712" s="12"/>
+      <c r="B712" s="16"/>
+      <c r="C712" s="16"/>
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
@@ -35131,11 +34578,11 @@
       </c>
     </row>
     <row r="722" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A722" s="12" t="s">
+      <c r="A722" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B722" s="12"/>
-      <c r="C722" s="12"/>
+      <c r="B722" s="16"/>
+      <c r="C722" s="16"/>
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
@@ -35605,11 +35052,11 @@
       </c>
     </row>
     <row r="732" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A732" s="12" t="s">
+      <c r="A732" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
+      <c r="B732" s="16"/>
+      <c r="C732" s="16"/>
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
@@ -36141,11 +35588,11 @@
       </c>
     </row>
     <row r="743" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A743" s="12" t="s">
+      <c r="A743" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B743" s="12"/>
-      <c r="C743" s="12"/>
+      <c r="B743" s="16"/>
+      <c r="C743" s="16"/>
       <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
@@ -36631,11 +36078,11 @@
       <c r="T753" s="5"/>
     </row>
     <row r="754" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A754" s="12" t="s">
+      <c r="A754" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B754" s="12"/>
-      <c r="C754" s="12"/>
+      <c r="B754" s="16"/>
+      <c r="C754" s="16"/>
       <c r="D754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
@@ -36963,11 +36410,11 @@
       </c>
     </row>
     <row r="765" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A765" s="12" t="s">
+      <c r="A765" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B765" s="12"/>
-      <c r="C765" s="12"/>
+      <c r="B765" s="16"/>
+      <c r="C765" s="16"/>
       <c r="D765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
@@ -37623,11 +37070,11 @@
       </c>
     </row>
     <row r="778" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A778" s="12" t="s">
+      <c r="A778" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B778" s="12"/>
-      <c r="C778" s="12"/>
+      <c r="B778" s="16"/>
+      <c r="C778" s="16"/>
       <c r="D778" s="6"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
@@ -38307,11 +37754,11 @@
       </c>
     </row>
     <row r="792" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A792" s="12" t="s">
+      <c r="A792" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B792" s="12"/>
-      <c r="C792" s="12"/>
+      <c r="B792" s="16"/>
+      <c r="C792" s="16"/>
       <c r="D792" s="6"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
@@ -38905,11 +38352,11 @@
       </c>
     </row>
     <row r="804" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A804" s="12" t="s">
+      <c r="A804" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B804" s="12"/>
-      <c r="C804" s="12"/>
+      <c r="B804" s="16"/>
+      <c r="C804" s="16"/>
       <c r="D804" s="6"/>
       <c r="E804" s="6"/>
       <c r="F804" s="6"/>
@@ -39503,11 +38950,11 @@
       </c>
     </row>
     <row r="816" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A816" s="12" t="s">
+      <c r="A816" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B816" s="12"/>
-      <c r="C816" s="12"/>
+      <c r="B816" s="16"/>
+      <c r="C816" s="16"/>
       <c r="D816" s="6"/>
       <c r="E816" s="6"/>
       <c r="F816" s="6"/>
@@ -40430,11 +39877,11 @@
       </c>
     </row>
     <row r="833" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A833" s="12" t="s">
+      <c r="A833" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B833" s="12"/>
-      <c r="C833" s="12"/>
+      <c r="B833" s="16"/>
+      <c r="C833" s="16"/>
       <c r="D833" s="6"/>
       <c r="E833" s="6"/>
       <c r="F833" s="6"/>
@@ -40904,11 +40351,11 @@
       </c>
     </row>
     <row r="843" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A843" s="12" t="s">
+      <c r="A843" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B843" s="12"/>
-      <c r="C843" s="12"/>
+      <c r="B843" s="16"/>
+      <c r="C843" s="16"/>
       <c r="D843" s="6"/>
       <c r="E843" s="6"/>
       <c r="F843" s="6"/>
@@ -41521,11 +40968,11 @@
       </c>
     </row>
     <row r="855" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A855" s="12" t="s">
+      <c r="A855" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B855" s="12"/>
-      <c r="C855" s="12"/>
+      <c r="B855" s="16"/>
+      <c r="C855" s="16"/>
       <c r="D855" s="6"/>
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
@@ -41995,11 +41442,11 @@
       </c>
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A865" s="12" t="s">
+      <c r="A865" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B865" s="12"/>
-      <c r="C865" s="12"/>
+      <c r="B865" s="16"/>
+      <c r="C865" s="16"/>
       <c r="D865" s="6"/>
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
@@ -42593,11 +42040,11 @@
       </c>
     </row>
     <row r="877" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A877" s="12" t="s">
+      <c r="A877" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B877" s="12"/>
-      <c r="C877" s="12"/>
+      <c r="B877" s="16"/>
+      <c r="C877" s="16"/>
       <c r="D877" s="6"/>
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
@@ -43191,11 +42638,11 @@
       </c>
     </row>
     <row r="889" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A889" s="12" t="s">
+      <c r="A889" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B889" s="12"/>
-      <c r="C889" s="12"/>
+      <c r="B889" s="16"/>
+      <c r="C889" s="16"/>
       <c r="D889" s="6"/>
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
@@ -43789,11 +43236,11 @@
       </c>
     </row>
     <row r="901" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A901" s="12" t="s">
+      <c r="A901" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B901" s="12"/>
-      <c r="C901" s="12"/>
+      <c r="B901" s="16"/>
+      <c r="C901" s="16"/>
       <c r="D901" s="6"/>
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
@@ -44279,11 +43726,11 @@
       <c r="T911" s="5"/>
     </row>
     <row r="912" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A912" s="12" t="s">
+      <c r="A912" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B912" s="12"/>
-      <c r="C912" s="12"/>
+      <c r="B912" s="16"/>
+      <c r="C912" s="16"/>
       <c r="D912" s="6"/>
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
@@ -44583,11 +44030,11 @@
       </c>
     </row>
     <row r="922" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A922" s="12" t="s">
+      <c r="A922" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B922" s="12"/>
-      <c r="C922" s="12"/>
+      <c r="B922" s="16"/>
+      <c r="C922" s="16"/>
       <c r="D922" s="6"/>
       <c r="E922" s="6"/>
       <c r="F922" s="6"/>
@@ -45057,11 +44504,11 @@
       </c>
     </row>
     <row r="932" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A932" s="12" t="s">
+      <c r="A932" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B932" s="12"/>
-      <c r="C932" s="12"/>
+      <c r="B932" s="16"/>
+      <c r="C932" s="16"/>
       <c r="D932" s="6"/>
       <c r="E932" s="6"/>
       <c r="F932" s="6"/>
@@ -45655,11 +45102,11 @@
       </c>
     </row>
     <row r="944" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A944" s="12" t="s">
+      <c r="A944" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B944" s="12"/>
-      <c r="C944" s="12"/>
+      <c r="B944" s="16"/>
+      <c r="C944" s="16"/>
       <c r="D944" s="6"/>
       <c r="E944" s="6"/>
       <c r="F944" s="6"/>
@@ -46315,11 +45762,11 @@
       </c>
     </row>
     <row r="957" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A957" s="12" t="s">
+      <c r="A957" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B957" s="12"/>
-      <c r="C957" s="12"/>
+      <c r="B957" s="16"/>
+      <c r="C957" s="16"/>
       <c r="D957" s="6"/>
       <c r="E957" s="6"/>
       <c r="F957" s="6"/>
@@ -46851,11 +46298,11 @@
       </c>
     </row>
     <row r="968" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A968" s="12" t="s">
+      <c r="A968" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B968" s="12"/>
-      <c r="C968" s="12"/>
+      <c r="B968" s="16"/>
+      <c r="C968" s="16"/>
       <c r="D968" s="6"/>
       <c r="E968" s="6"/>
       <c r="F968" s="6"/>
@@ -47269,28 +46716,28 @@
       <c r="T975" s="6"/>
     </row>
     <row r="976" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A976" s="16" t="s">
+      <c r="A976" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="B976" s="16"/>
-      <c r="C976" s="17"/>
-      <c r="D976" s="17"/>
-      <c r="E976" s="17"/>
-      <c r="F976" s="17"/>
-      <c r="G976" s="17"/>
-      <c r="H976" s="17"/>
-      <c r="I976" s="17"/>
-      <c r="J976" s="17"/>
-      <c r="K976" s="17"/>
-      <c r="L976" s="17"/>
-      <c r="M976" s="17"/>
-      <c r="N976" s="17"/>
-      <c r="O976" s="17"/>
-      <c r="P976" s="17"/>
-      <c r="Q976" s="17"/>
-      <c r="R976" s="17"/>
-      <c r="S976" s="17"/>
-      <c r="T976" s="17"/>
+      <c r="B976" s="17"/>
+      <c r="C976" s="18"/>
+      <c r="D976" s="18"/>
+      <c r="E976" s="18"/>
+      <c r="F976" s="18"/>
+      <c r="G976" s="18"/>
+      <c r="H976" s="18"/>
+      <c r="I976" s="18"/>
+      <c r="J976" s="18"/>
+      <c r="K976" s="18"/>
+      <c r="L976" s="18"/>
+      <c r="M976" s="18"/>
+      <c r="N976" s="18"/>
+      <c r="O976" s="18"/>
+      <c r="P976" s="18"/>
+      <c r="Q976" s="18"/>
+      <c r="R976" s="18"/>
+      <c r="S976" s="18"/>
+      <c r="T976" s="18"/>
     </row>
     <row r="977" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A977" s="2"/>
@@ -47387,11 +46834,11 @@
       </c>
     </row>
     <row r="979" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A979" s="12" t="s">
+      <c r="A979" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B979" s="12"/>
-      <c r="C979" s="12"/>
+      <c r="B979" s="16"/>
+      <c r="C979" s="16"/>
       <c r="D979" s="6"/>
       <c r="E979" s="6"/>
       <c r="F979" s="6"/>
@@ -47923,11 +47370,11 @@
       </c>
     </row>
     <row r="990" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A990" s="12" t="s">
+      <c r="A990" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B990" s="12"/>
-      <c r="C990" s="12"/>
+      <c r="B990" s="16"/>
+      <c r="C990" s="16"/>
       <c r="D990" s="6"/>
       <c r="E990" s="6"/>
       <c r="F990" s="6"/>
@@ -48645,11 +48092,11 @@
       </c>
     </row>
     <row r="1004" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1004" s="12" t="s">
+      <c r="A1004" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B1004" s="12"/>
-      <c r="C1004" s="12"/>
+      <c r="B1004" s="16"/>
+      <c r="C1004" s="16"/>
       <c r="D1004" s="6"/>
       <c r="E1004" s="6"/>
       <c r="F1004" s="6"/>
@@ -49119,11 +48566,11 @@
       </c>
     </row>
     <row r="1014" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1014" s="12" t="s">
+      <c r="A1014" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B1014" s="12"/>
-      <c r="C1014" s="12"/>
+      <c r="B1014" s="16"/>
+      <c r="C1014" s="16"/>
       <c r="D1014" s="6"/>
       <c r="E1014" s="6"/>
       <c r="F1014" s="6"/>
@@ -49634,11 +49081,11 @@
       </c>
     </row>
     <row r="1025" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1025" s="12" t="s">
+      <c r="A1025" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B1025" s="12"/>
-      <c r="C1025" s="12"/>
+      <c r="B1025" s="16"/>
+      <c r="C1025" s="16"/>
       <c r="D1025" s="6"/>
       <c r="E1025" s="6"/>
       <c r="F1025" s="6"/>
@@ -50232,11 +49679,11 @@
       </c>
     </row>
     <row r="1037" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1037" s="12" t="s">
+      <c r="A1037" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B1037" s="12"/>
-      <c r="C1037" s="12"/>
+      <c r="B1037" s="16"/>
+      <c r="C1037" s="16"/>
       <c r="D1037" s="6"/>
       <c r="E1037" s="6"/>
       <c r="F1037" s="6"/>
@@ -50792,11 +50239,11 @@
       </c>
     </row>
     <row r="1049" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1049" s="12" t="s">
+      <c r="A1049" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B1049" s="12"/>
-      <c r="C1049" s="12"/>
+      <c r="B1049" s="16"/>
+      <c r="C1049" s="16"/>
       <c r="D1049" s="6"/>
       <c r="E1049" s="6"/>
       <c r="F1049" s="6"/>
@@ -51266,11 +50713,11 @@
       </c>
     </row>
     <row r="1059" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1059" s="12" t="s">
+      <c r="A1059" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B1059" s="12"/>
-      <c r="C1059" s="12"/>
+      <c r="B1059" s="16"/>
+      <c r="C1059" s="16"/>
       <c r="D1059" s="6"/>
       <c r="E1059" s="6"/>
       <c r="F1059" s="6"/>
@@ -51802,11 +51249,11 @@
       </c>
     </row>
     <row r="1070" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1070" s="12" t="s">
+      <c r="A1070" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B1070" s="12"/>
-      <c r="C1070" s="12"/>
+      <c r="B1070" s="16"/>
+      <c r="C1070" s="16"/>
       <c r="D1070" s="6"/>
       <c r="E1070" s="6"/>
       <c r="F1070" s="6"/>
@@ -52276,11 +51723,11 @@
       </c>
     </row>
     <row r="1080" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1080" s="12" t="s">
+      <c r="A1080" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B1080" s="12"/>
-      <c r="C1080" s="12"/>
+      <c r="B1080" s="16"/>
+      <c r="C1080" s="16"/>
       <c r="D1080" s="6"/>
       <c r="E1080" s="6"/>
       <c r="F1080" s="6"/>
@@ -52750,11 +52197,11 @@
       </c>
     </row>
     <row r="1090" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1090" s="12" t="s">
+      <c r="A1090" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B1090" s="12"/>
-      <c r="C1090" s="12"/>
+      <c r="B1090" s="16"/>
+      <c r="C1090" s="16"/>
       <c r="D1090" s="6"/>
       <c r="E1090" s="6"/>
       <c r="F1090" s="6"/>
@@ -53305,11 +52752,11 @@
       </c>
     </row>
     <row r="1101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1101" s="12" t="s">
+      <c r="A1101" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B1101" s="12"/>
-      <c r="C1101" s="12"/>
+      <c r="B1101" s="16"/>
+      <c r="C1101" s="16"/>
       <c r="D1101" s="6"/>
       <c r="E1101" s="6"/>
       <c r="F1101" s="6"/>
@@ -53779,11 +53226,11 @@
       </c>
     </row>
     <row r="1111" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1111" s="12" t="s">
+      <c r="A1111" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B1111" s="12"/>
-      <c r="C1111" s="12"/>
+      <c r="B1111" s="16"/>
+      <c r="C1111" s="16"/>
       <c r="D1111" s="6"/>
       <c r="E1111" s="6"/>
       <c r="F1111" s="6"/>
@@ -54207,11 +53654,11 @@
       <c r="T1120" s="5"/>
     </row>
     <row r="1121" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1121" s="12" t="s">
+      <c r="A1121" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B1121" s="12"/>
-      <c r="C1121" s="12"/>
+      <c r="B1121" s="16"/>
+      <c r="C1121" s="16"/>
       <c r="D1121" s="6"/>
       <c r="E1121" s="6"/>
       <c r="F1121" s="6"/>
@@ -54393,28 +53840,28 @@
       <c r="T1127" s="6"/>
     </row>
     <row r="1128" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1128" s="16" t="s">
+      <c r="A1128" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B1128" s="16"/>
-      <c r="C1128" s="17"/>
-      <c r="D1128" s="17"/>
-      <c r="E1128" s="17"/>
-      <c r="F1128" s="17"/>
-      <c r="G1128" s="17"/>
-      <c r="H1128" s="17"/>
-      <c r="I1128" s="17"/>
-      <c r="J1128" s="17"/>
-      <c r="K1128" s="17"/>
-      <c r="L1128" s="17"/>
-      <c r="M1128" s="17"/>
-      <c r="N1128" s="17"/>
-      <c r="O1128" s="17"/>
-      <c r="P1128" s="17"/>
-      <c r="Q1128" s="17"/>
-      <c r="R1128" s="17"/>
-      <c r="S1128" s="17"/>
-      <c r="T1128" s="17"/>
+      <c r="B1128" s="17"/>
+      <c r="C1128" s="18"/>
+      <c r="D1128" s="18"/>
+      <c r="E1128" s="18"/>
+      <c r="F1128" s="18"/>
+      <c r="G1128" s="18"/>
+      <c r="H1128" s="18"/>
+      <c r="I1128" s="18"/>
+      <c r="J1128" s="18"/>
+      <c r="K1128" s="18"/>
+      <c r="L1128" s="18"/>
+      <c r="M1128" s="18"/>
+      <c r="N1128" s="18"/>
+      <c r="O1128" s="18"/>
+      <c r="P1128" s="18"/>
+      <c r="Q1128" s="18"/>
+      <c r="R1128" s="18"/>
+      <c r="S1128" s="18"/>
+      <c r="T1128" s="18"/>
     </row>
     <row r="1129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1129" s="2"/>
@@ -54511,11 +53958,11 @@
       </c>
     </row>
     <row r="1131" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1131" s="12" t="s">
+      <c r="A1131" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B1131" s="12"/>
-      <c r="C1131" s="12"/>
+      <c r="B1131" s="16"/>
+      <c r="C1131" s="16"/>
       <c r="D1131" s="6"/>
       <c r="E1131" s="6"/>
       <c r="F1131" s="6"/>
@@ -55171,11 +54618,11 @@
       </c>
     </row>
     <row r="1144" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1144" s="12" t="s">
+      <c r="A1144" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B1144" s="12"/>
-      <c r="C1144" s="12"/>
+      <c r="B1144" s="16"/>
+      <c r="C1144" s="16"/>
       <c r="D1144" s="6"/>
       <c r="E1144" s="6"/>
       <c r="F1144" s="6"/>
@@ -55645,11 +55092,11 @@
       </c>
     </row>
     <row r="1154" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1154" s="12" t="s">
+      <c r="A1154" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B1154" s="12"/>
-      <c r="C1154" s="12"/>
+      <c r="B1154" s="16"/>
+      <c r="C1154" s="16"/>
       <c r="D1154" s="6"/>
       <c r="E1154" s="6"/>
       <c r="F1154" s="6"/>
@@ -56119,11 +55566,11 @@
       </c>
     </row>
     <row r="1164" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1164" s="12" t="s">
+      <c r="A1164" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B1164" s="12"/>
-      <c r="C1164" s="12"/>
+      <c r="B1164" s="16"/>
+      <c r="C1164" s="16"/>
       <c r="D1164" s="6"/>
       <c r="E1164" s="6"/>
       <c r="F1164" s="6"/>
@@ -56475,28 +55922,28 @@
       <c r="T1170" s="6"/>
     </row>
     <row r="1171" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1171" s="16" t="s">
+      <c r="A1171" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B1171" s="16"/>
-      <c r="C1171" s="17"/>
-      <c r="D1171" s="17"/>
-      <c r="E1171" s="17"/>
-      <c r="F1171" s="17"/>
-      <c r="G1171" s="17"/>
-      <c r="H1171" s="17"/>
-      <c r="I1171" s="17"/>
-      <c r="J1171" s="17"/>
-      <c r="K1171" s="17"/>
-      <c r="L1171" s="17"/>
-      <c r="M1171" s="17"/>
-      <c r="N1171" s="17"/>
-      <c r="O1171" s="17"/>
-      <c r="P1171" s="17"/>
-      <c r="Q1171" s="17"/>
-      <c r="R1171" s="17"/>
-      <c r="S1171" s="17"/>
-      <c r="T1171" s="17"/>
+      <c r="B1171" s="17"/>
+      <c r="C1171" s="18"/>
+      <c r="D1171" s="18"/>
+      <c r="E1171" s="18"/>
+      <c r="F1171" s="18"/>
+      <c r="G1171" s="18"/>
+      <c r="H1171" s="18"/>
+      <c r="I1171" s="18"/>
+      <c r="J1171" s="18"/>
+      <c r="K1171" s="18"/>
+      <c r="L1171" s="18"/>
+      <c r="M1171" s="18"/>
+      <c r="N1171" s="18"/>
+      <c r="O1171" s="18"/>
+      <c r="P1171" s="18"/>
+      <c r="Q1171" s="18"/>
+      <c r="R1171" s="18"/>
+      <c r="S1171" s="18"/>
+      <c r="T1171" s="18"/>
     </row>
     <row r="1172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1172" s="13" t="s">
@@ -56617,11 +56064,11 @@
       </c>
     </row>
     <row r="1175" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1175" s="12" t="s">
+      <c r="A1175" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B1175" s="12"/>
-      <c r="C1175" s="12"/>
+      <c r="B1175" s="16"/>
+      <c r="C1175" s="16"/>
       <c r="D1175" s="6"/>
       <c r="E1175" s="6"/>
       <c r="F1175" s="6"/>
@@ -57091,11 +56538,11 @@
       </c>
     </row>
     <row r="1185" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1185" s="12" t="s">
+      <c r="A1185" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B1185" s="12"/>
-      <c r="C1185" s="12"/>
+      <c r="B1185" s="16"/>
+      <c r="C1185" s="16"/>
       <c r="D1185" s="6"/>
       <c r="E1185" s="6"/>
       <c r="F1185" s="6"/>
@@ -58123,11 +57570,11 @@
       </c>
     </row>
     <row r="1204" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1204" s="12" t="s">
+      <c r="A1204" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B1204" s="12"/>
-      <c r="C1204" s="12"/>
+      <c r="B1204" s="16"/>
+      <c r="C1204" s="16"/>
       <c r="D1204" s="6"/>
       <c r="E1204" s="6"/>
       <c r="F1204" s="6"/>
@@ -58845,11 +58292,11 @@
       </c>
     </row>
     <row r="1218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1218" s="12" t="s">
+      <c r="A1218" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B1218" s="12"/>
-      <c r="C1218" s="12"/>
+      <c r="B1218" s="16"/>
+      <c r="C1218" s="16"/>
       <c r="D1218" s="6"/>
       <c r="E1218" s="6"/>
       <c r="F1218" s="6"/>
@@ -59319,11 +58766,11 @@
       </c>
     </row>
     <row r="1228" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1228" s="12" t="s">
+      <c r="A1228" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B1228" s="12"/>
-      <c r="C1228" s="12"/>
+      <c r="B1228" s="16"/>
+      <c r="C1228" s="16"/>
       <c r="D1228" s="6"/>
       <c r="E1228" s="6"/>
       <c r="F1228" s="6"/>
@@ -60351,11 +59798,11 @@
       </c>
     </row>
     <row r="1247" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1247" s="12" t="s">
+      <c r="A1247" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B1247" s="12"/>
-      <c r="C1247" s="12"/>
+      <c r="B1247" s="16"/>
+      <c r="C1247" s="16"/>
       <c r="D1247" s="6"/>
       <c r="E1247" s="6"/>
       <c r="F1247" s="6"/>
@@ -61027,11 +60474,11 @@
       <c r="T1260" s="5"/>
     </row>
     <row r="1261" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1261" s="12" t="s">
+      <c r="A1261" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B1261" s="12"/>
-      <c r="C1261" s="12"/>
+      <c r="B1261" s="16"/>
+      <c r="C1261" s="16"/>
       <c r="D1261" s="6"/>
       <c r="E1261" s="6"/>
       <c r="F1261" s="6"/>
@@ -61499,11 +60946,11 @@
       </c>
     </row>
     <row r="1277" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1277" s="12" t="s">
+      <c r="A1277" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="B1277" s="12"/>
-      <c r="C1277" s="12"/>
+      <c r="B1277" s="16"/>
+      <c r="C1277" s="16"/>
       <c r="D1277" s="6"/>
       <c r="E1277" s="6"/>
       <c r="F1277" s="6"/>
@@ -61973,11 +61420,11 @@
       </c>
     </row>
     <row r="1287" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1287" s="12" t="s">
+      <c r="A1287" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B1287" s="12"/>
-      <c r="C1287" s="12"/>
+      <c r="B1287" s="16"/>
+      <c r="C1287" s="16"/>
       <c r="D1287" s="6"/>
       <c r="E1287" s="6"/>
       <c r="F1287" s="6"/>
@@ -63067,11 +62514,11 @@
       </c>
     </row>
     <row r="1307" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1307" s="12" t="s">
+      <c r="A1307" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B1307" s="12"/>
-      <c r="C1307" s="12"/>
+      <c r="B1307" s="16"/>
+      <c r="C1307" s="16"/>
       <c r="D1307" s="6"/>
       <c r="E1307" s="6"/>
       <c r="F1307" s="6"/>
@@ -63743,11 +63190,11 @@
       <c r="T1320" s="5"/>
     </row>
     <row r="1321" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1321" s="12" t="s">
+      <c r="A1321" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B1321" s="12"/>
-      <c r="C1321" s="12"/>
+      <c r="B1321" s="16"/>
+      <c r="C1321" s="16"/>
       <c r="D1321" s="6"/>
       <c r="E1321" s="6"/>
       <c r="F1321" s="6"/>
@@ -64197,11 +63644,11 @@
       <c r="T1337" s="5"/>
     </row>
     <row r="1338" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1338" s="12" t="s">
+      <c r="A1338" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B1338" s="12"/>
-      <c r="C1338" s="12"/>
+      <c r="B1338" s="16"/>
+      <c r="C1338" s="16"/>
       <c r="D1338" s="6"/>
       <c r="E1338" s="6"/>
       <c r="F1338" s="6"/>
@@ -64427,11 +63874,11 @@
       <c r="T1346" s="5"/>
     </row>
     <row r="1347" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1347" s="12" t="s">
+      <c r="A1347" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="B1347" s="12"/>
-      <c r="C1347" s="12"/>
+      <c r="B1347" s="16"/>
+      <c r="C1347" s="16"/>
       <c r="D1347" s="6"/>
       <c r="E1347" s="6"/>
       <c r="F1347" s="6"/>
@@ -64657,11 +64104,11 @@
       <c r="T1355" s="5"/>
     </row>
     <row r="1356" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1356" s="12" t="s">
+      <c r="A1356" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="B1356" s="12"/>
-      <c r="C1356" s="12"/>
+      <c r="B1356" s="16"/>
+      <c r="C1356" s="16"/>
       <c r="D1356" s="6"/>
       <c r="E1356" s="6"/>
       <c r="F1356" s="6"/>
@@ -64943,11 +64390,11 @@
       <c r="T1366" s="5"/>
     </row>
     <row r="1367" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1367" s="12" t="s">
+      <c r="A1367" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B1367" s="12"/>
-      <c r="C1367" s="12"/>
+      <c r="B1367" s="16"/>
+      <c r="C1367" s="16"/>
       <c r="D1367" s="6"/>
       <c r="E1367" s="6"/>
       <c r="F1367" s="6"/>
@@ -65173,11 +64620,11 @@
       <c r="T1375" s="5"/>
     </row>
     <row r="1376" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1376" s="12" t="s">
+      <c r="A1376" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B1376" s="12"/>
-      <c r="C1376" s="12"/>
+      <c r="B1376" s="16"/>
+      <c r="C1376" s="16"/>
       <c r="D1376" s="6"/>
       <c r="E1376" s="6"/>
       <c r="F1376" s="6"/>
@@ -65403,11 +64850,11 @@
       <c r="T1384" s="5"/>
     </row>
     <row r="1385" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1385" s="12" t="s">
+      <c r="A1385" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B1385" s="12"/>
-      <c r="C1385" s="12"/>
+      <c r="B1385" s="16"/>
+      <c r="C1385" s="16"/>
       <c r="D1385" s="6"/>
       <c r="E1385" s="6"/>
       <c r="F1385" s="6"/>
@@ -65633,11 +65080,11 @@
       <c r="T1393" s="5"/>
     </row>
     <row r="1394" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1394" s="12" t="s">
+      <c r="A1394" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B1394" s="12"/>
-      <c r="C1394" s="12"/>
+      <c r="B1394" s="16"/>
+      <c r="C1394" s="16"/>
       <c r="D1394" s="6"/>
       <c r="E1394" s="6"/>
       <c r="F1394" s="6"/>
@@ -65863,11 +65310,11 @@
       <c r="T1402" s="5"/>
     </row>
     <row r="1403" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1403" s="12" t="s">
+      <c r="A1403" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B1403" s="12"/>
-      <c r="C1403" s="12"/>
+      <c r="B1403" s="16"/>
+      <c r="C1403" s="16"/>
       <c r="D1403" s="6"/>
       <c r="E1403" s="6"/>
       <c r="F1403" s="6"/>
@@ -66093,11 +65540,11 @@
       <c r="T1411" s="5"/>
     </row>
     <row r="1412" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1412" s="12" t="s">
+      <c r="A1412" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="B1412" s="12"/>
-      <c r="C1412" s="12"/>
+      <c r="B1412" s="16"/>
+      <c r="C1412" s="16"/>
       <c r="D1412" s="6"/>
       <c r="E1412" s="6"/>
       <c r="F1412" s="6"/>
@@ -66369,11 +65816,11 @@
       </c>
     </row>
     <row r="1421" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1421" s="12" t="s">
+      <c r="A1421" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1421" s="12"/>
-      <c r="C1421" s="12"/>
+      <c r="B1421" s="16"/>
+      <c r="C1421" s="16"/>
       <c r="D1421" s="6"/>
       <c r="E1421" s="6"/>
       <c r="F1421" s="6"/>
@@ -66735,11 +66182,11 @@
       <c r="T1429" s="5"/>
     </row>
     <row r="1430" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1430" s="12" t="s">
+      <c r="A1430" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B1430" s="12"/>
-      <c r="C1430" s="12"/>
+      <c r="B1430" s="16"/>
+      <c r="C1430" s="16"/>
       <c r="D1430" s="6"/>
       <c r="E1430" s="6"/>
       <c r="F1430" s="6"/>
@@ -67047,11 +66494,11 @@
       <c r="T1441" s="5"/>
     </row>
     <row r="1442" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1442" s="12" t="s">
+      <c r="A1442" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="B1442" s="12"/>
-      <c r="C1442" s="12"/>
+      <c r="B1442" s="16"/>
+      <c r="C1442" s="16"/>
       <c r="D1442" s="6"/>
       <c r="E1442" s="6"/>
       <c r="F1442" s="6"/>
@@ -67100,7 +66547,7 @@
       <c r="A1444" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B1444" s="18">
+      <c r="B1444" s="12">
         <v>2E-3</v>
       </c>
       <c r="C1444" s="8"/>
@@ -67126,7 +66573,7 @@
       <c r="A1445" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B1445" s="18">
+      <c r="B1445" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C1445" s="8"/>
@@ -67152,7 +66599,7 @@
       <c r="A1446" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B1446" s="18">
+      <c r="B1446" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C1446" s="8"/>
@@ -67417,11 +66864,11 @@
       </c>
     </row>
     <row r="1455" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1455" s="12" t="s">
+      <c r="A1455" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B1455" s="12"/>
-      <c r="C1455" s="12"/>
+      <c r="B1455" s="16"/>
+      <c r="C1455" s="16"/>
       <c r="D1455" s="6"/>
       <c r="E1455" s="6"/>
       <c r="F1455" s="6"/>
@@ -67891,11 +67338,11 @@
       </c>
     </row>
     <row r="1465" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1465" s="12" t="s">
+      <c r="A1465" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="B1465" s="12"/>
-      <c r="C1465" s="12"/>
+      <c r="B1465" s="16"/>
+      <c r="C1465" s="16"/>
       <c r="D1465" s="6"/>
       <c r="E1465" s="6"/>
       <c r="F1465" s="6"/>
@@ -68319,11 +67766,11 @@
       <c r="T1474" s="5"/>
     </row>
     <row r="1475" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1475" s="12" t="s">
+      <c r="A1475" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="B1475" s="12"/>
-      <c r="C1475" s="12"/>
+      <c r="B1475" s="16"/>
+      <c r="C1475" s="16"/>
       <c r="D1475" s="6"/>
       <c r="E1475" s="6"/>
       <c r="F1475" s="6"/>
@@ -68577,11 +68024,11 @@
       <c r="T1484" s="5"/>
     </row>
     <row r="1485" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1485" s="12" t="s">
+      <c r="A1485" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B1485" s="12"/>
-      <c r="C1485" s="12"/>
+      <c r="B1485" s="16"/>
+      <c r="C1485" s="16"/>
       <c r="D1485" s="6"/>
       <c r="E1485" s="6"/>
       <c r="F1485" s="6"/>
@@ -68835,11 +68282,11 @@
       <c r="T1494" s="5"/>
     </row>
     <row r="1495" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1495" s="12" t="s">
+      <c r="A1495" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B1495" s="12"/>
-      <c r="C1495" s="12"/>
+      <c r="B1495" s="16"/>
+      <c r="C1495" s="16"/>
       <c r="D1495" s="6"/>
       <c r="E1495" s="6"/>
       <c r="F1495" s="6"/>
@@ -69093,11 +68540,11 @@
       <c r="T1504" s="5"/>
     </row>
     <row r="1505" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1505" s="12" t="s">
+      <c r="A1505" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B1505" s="12"/>
-      <c r="C1505" s="12"/>
+      <c r="B1505" s="16"/>
+      <c r="C1505" s="16"/>
       <c r="D1505" s="6"/>
       <c r="E1505" s="6"/>
       <c r="F1505" s="6"/>
@@ -69397,11 +68844,11 @@
       </c>
     </row>
     <row r="1515" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1515" s="12" t="s">
+      <c r="A1515" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B1515" s="12"/>
-      <c r="C1515" s="12"/>
+      <c r="B1515" s="16"/>
+      <c r="C1515" s="16"/>
       <c r="D1515" s="6"/>
       <c r="E1515" s="6"/>
       <c r="F1515" s="6"/>
@@ -69809,11 +69256,11 @@
       </c>
     </row>
     <row r="1524" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1524" s="12" t="s">
+      <c r="A1524" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B1524" s="12"/>
-      <c r="C1524" s="12"/>
+      <c r="B1524" s="16"/>
+      <c r="C1524" s="16"/>
       <c r="D1524" s="6"/>
       <c r="E1524" s="6"/>
       <c r="F1524" s="6"/>
@@ -70221,11 +69668,11 @@
       </c>
     </row>
     <row r="1533" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1533" s="12" t="s">
+      <c r="A1533" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B1533" s="12"/>
-      <c r="C1533" s="12"/>
+      <c r="B1533" s="16"/>
+      <c r="C1533" s="16"/>
       <c r="D1533" s="6"/>
       <c r="E1533" s="6"/>
       <c r="F1533" s="6"/>
@@ -70633,11 +70080,11 @@
       </c>
     </row>
     <row r="1542" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1542" s="12" t="s">
+      <c r="A1542" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B1542" s="12"/>
-      <c r="C1542" s="12"/>
+      <c r="B1542" s="16"/>
+      <c r="C1542" s="16"/>
       <c r="D1542" s="6"/>
       <c r="E1542" s="6"/>
       <c r="F1542" s="6"/>
@@ -71231,11 +70678,11 @@
       </c>
     </row>
     <row r="1554" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1554" s="12" t="s">
+      <c r="A1554" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="B1554" s="12"/>
-      <c r="C1554" s="12"/>
+      <c r="B1554" s="16"/>
+      <c r="C1554" s="16"/>
       <c r="D1554" s="6"/>
       <c r="E1554" s="6"/>
       <c r="F1554" s="6"/>
@@ -71597,11 +71044,11 @@
       <c r="T1562" s="5"/>
     </row>
     <row r="1563" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1563" s="12" t="s">
+      <c r="A1563" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B1563" s="12"/>
-      <c r="C1563" s="12"/>
+      <c r="B1563" s="16"/>
+      <c r="C1563" s="16"/>
       <c r="D1563" s="6"/>
       <c r="E1563" s="6"/>
       <c r="F1563" s="6"/>
@@ -71911,11 +71358,11 @@
       <c r="T1574" s="5"/>
     </row>
     <row r="1575" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1575" s="12" t="s">
+      <c r="A1575" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B1575" s="12"/>
-      <c r="C1575" s="12"/>
+      <c r="B1575" s="16"/>
+      <c r="C1575" s="16"/>
       <c r="D1575" s="6"/>
       <c r="E1575" s="6"/>
       <c r="F1575" s="6"/>
@@ -72393,11 +71840,11 @@
       <c r="T1592" s="5"/>
     </row>
     <row r="1593" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1593" s="12" t="s">
+      <c r="A1593" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="B1593" s="12"/>
-      <c r="C1593" s="12"/>
+      <c r="B1593" s="16"/>
+      <c r="C1593" s="16"/>
       <c r="D1593" s="6"/>
       <c r="E1593" s="6"/>
       <c r="F1593" s="6"/>
@@ -72781,11 +72228,11 @@
       </c>
     </row>
     <row r="1606" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1606" s="12" t="s">
+      <c r="A1606" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B1606" s="12"/>
-      <c r="C1606" s="12"/>
+      <c r="B1606" s="16"/>
+      <c r="C1606" s="16"/>
       <c r="D1606" s="6"/>
       <c r="E1606" s="6"/>
       <c r="F1606" s="6"/>
@@ -73255,11 +72702,11 @@
       </c>
     </row>
     <row r="1616" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1616" s="12" t="s">
+      <c r="A1616" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B1616" s="12"/>
-      <c r="C1616" s="12"/>
+      <c r="B1616" s="16"/>
+      <c r="C1616" s="16"/>
       <c r="D1616" s="6"/>
       <c r="E1616" s="6"/>
       <c r="F1616" s="6"/>
@@ -73729,11 +73176,11 @@
       </c>
     </row>
     <row r="1626" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1626" s="12" t="s">
+      <c r="A1626" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B1626" s="12"/>
-      <c r="C1626" s="12"/>
+      <c r="B1626" s="16"/>
+      <c r="C1626" s="16"/>
       <c r="D1626" s="6"/>
       <c r="E1626" s="6"/>
       <c r="F1626" s="6"/>
@@ -74203,11 +73650,11 @@
       </c>
     </row>
     <row r="1636" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1636" s="12" t="s">
+      <c r="A1636" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B1636" s="12"/>
-      <c r="C1636" s="12"/>
+      <c r="B1636" s="16"/>
+      <c r="C1636" s="16"/>
       <c r="D1636" s="6"/>
       <c r="E1636" s="6"/>
       <c r="F1636" s="6"/>
@@ -74801,11 +74248,11 @@
       </c>
     </row>
     <row r="1648" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1648" s="12" t="s">
+      <c r="A1648" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B1648" s="12"/>
-      <c r="C1648" s="12"/>
+      <c r="B1648" s="16"/>
+      <c r="C1648" s="16"/>
       <c r="D1648" s="6"/>
       <c r="E1648" s="6"/>
       <c r="F1648" s="6"/>
@@ -75213,11 +74660,11 @@
       </c>
     </row>
     <row r="1657" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1657" s="12" t="s">
+      <c r="A1657" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="B1657" s="12"/>
-      <c r="C1657" s="12"/>
+      <c r="B1657" s="16"/>
+      <c r="C1657" s="16"/>
       <c r="D1657" s="6"/>
       <c r="E1657" s="6"/>
       <c r="F1657" s="6"/>
@@ -75687,11 +75134,11 @@
       </c>
     </row>
     <row r="1667" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1667" s="12" t="s">
+      <c r="A1667" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B1667" s="12"/>
-      <c r="C1667" s="12"/>
+      <c r="B1667" s="16"/>
+      <c r="C1667" s="16"/>
       <c r="D1667" s="6"/>
       <c r="E1667" s="6"/>
       <c r="F1667" s="6"/>
@@ -76167,28 +75614,28 @@
       <c r="T1675" s="6"/>
     </row>
     <row r="1676" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1676" s="16" t="s">
+      <c r="A1676" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="B1676" s="16"/>
-      <c r="C1676" s="17"/>
-      <c r="D1676" s="17"/>
-      <c r="E1676" s="17"/>
-      <c r="F1676" s="17"/>
-      <c r="G1676" s="17"/>
-      <c r="H1676" s="17"/>
-      <c r="I1676" s="17"/>
-      <c r="J1676" s="17"/>
-      <c r="K1676" s="17"/>
-      <c r="L1676" s="17"/>
-      <c r="M1676" s="17"/>
-      <c r="N1676" s="17"/>
-      <c r="O1676" s="17"/>
-      <c r="P1676" s="17"/>
-      <c r="Q1676" s="17"/>
-      <c r="R1676" s="17"/>
-      <c r="S1676" s="17"/>
-      <c r="T1676" s="17"/>
+      <c r="B1676" s="17"/>
+      <c r="C1676" s="18"/>
+      <c r="D1676" s="18"/>
+      <c r="E1676" s="18"/>
+      <c r="F1676" s="18"/>
+      <c r="G1676" s="18"/>
+      <c r="H1676" s="18"/>
+      <c r="I1676" s="18"/>
+      <c r="J1676" s="18"/>
+      <c r="K1676" s="18"/>
+      <c r="L1676" s="18"/>
+      <c r="M1676" s="18"/>
+      <c r="N1676" s="18"/>
+      <c r="O1676" s="18"/>
+      <c r="P1676" s="18"/>
+      <c r="Q1676" s="18"/>
+      <c r="R1676" s="18"/>
+      <c r="S1676" s="18"/>
+      <c r="T1676" s="18"/>
     </row>
     <row r="1677" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1677" s="2"/>
@@ -76239,11 +75686,11 @@
       <c r="T1678" s="5"/>
     </row>
     <row r="1679" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1679" s="12" t="s">
+      <c r="A1679" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B1679" s="12"/>
-      <c r="C1679" s="12"/>
+      <c r="B1679" s="16"/>
+      <c r="C1679" s="16"/>
       <c r="D1679" s="6"/>
       <c r="E1679" s="6"/>
       <c r="F1679" s="6"/>
@@ -76515,11 +75962,11 @@
       </c>
     </row>
     <row r="1688" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1688" s="12" t="s">
+      <c r="A1688" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B1688" s="12"/>
-      <c r="C1688" s="12"/>
+      <c r="B1688" s="16"/>
+      <c r="C1688" s="16"/>
       <c r="D1688" s="6"/>
       <c r="E1688" s="6"/>
       <c r="F1688" s="6"/>
@@ -77113,11 +76560,11 @@
       </c>
     </row>
     <row r="1700" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1700" s="12" t="s">
+      <c r="A1700" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="B1700" s="12"/>
-      <c r="C1700" s="12"/>
+      <c r="B1700" s="16"/>
+      <c r="C1700" s="16"/>
       <c r="D1700" s="6"/>
       <c r="E1700" s="6"/>
       <c r="F1700" s="6"/>
@@ -77711,11 +77158,11 @@
       </c>
     </row>
     <row r="1712" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1712" s="12" t="s">
+      <c r="A1712" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="B1712" s="12"/>
-      <c r="C1712" s="12"/>
+      <c r="B1712" s="16"/>
+      <c r="C1712" s="16"/>
       <c r="D1712" s="6"/>
       <c r="E1712" s="6"/>
       <c r="F1712" s="6"/>
@@ -78309,11 +77756,11 @@
       </c>
     </row>
     <row r="1724" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1724" s="12" t="s">
+      <c r="A1724" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="B1724" s="12"/>
-      <c r="C1724" s="12"/>
+      <c r="B1724" s="16"/>
+      <c r="C1724" s="16"/>
       <c r="D1724" s="6"/>
       <c r="E1724" s="6"/>
       <c r="F1724" s="6"/>
@@ -78907,11 +78354,11 @@
       </c>
     </row>
     <row r="1736" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1736" s="12" t="s">
+      <c r="A1736" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B1736" s="12"/>
-      <c r="C1736" s="12"/>
+      <c r="B1736" s="16"/>
+      <c r="C1736" s="16"/>
       <c r="D1736" s="6"/>
       <c r="E1736" s="6"/>
       <c r="F1736" s="6"/>
@@ -79505,11 +78952,11 @@
       </c>
     </row>
     <row r="1748" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1748" s="12" t="s">
+      <c r="A1748" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B1748" s="12"/>
-      <c r="C1748" s="12"/>
+      <c r="B1748" s="16"/>
+      <c r="C1748" s="16"/>
       <c r="D1748" s="6"/>
       <c r="E1748" s="6"/>
       <c r="F1748" s="6"/>
@@ -80103,11 +79550,11 @@
       </c>
     </row>
     <row r="1760" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1760" s="12" t="s">
+      <c r="A1760" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="B1760" s="12"/>
-      <c r="C1760" s="12"/>
+      <c r="B1760" s="16"/>
+      <c r="C1760" s="16"/>
       <c r="D1760" s="6"/>
       <c r="E1760" s="6"/>
       <c r="F1760" s="6"/>
@@ -80653,11 +80100,11 @@
       <c r="T1771" s="5"/>
     </row>
     <row r="1772" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1772" s="12" t="s">
+      <c r="A1772" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="B1772" s="12"/>
-      <c r="C1772" s="12"/>
+      <c r="B1772" s="16"/>
+      <c r="C1772" s="16"/>
       <c r="D1772" s="6"/>
       <c r="E1772" s="6"/>
       <c r="F1772" s="6"/>
@@ -80951,11 +80398,11 @@
       <c r="T1783" s="5"/>
     </row>
     <row r="1784" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1784" s="12" t="s">
+      <c r="A1784" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="B1784" s="12"/>
-      <c r="C1784" s="12"/>
+      <c r="B1784" s="16"/>
+      <c r="C1784" s="16"/>
       <c r="D1784" s="6"/>
       <c r="E1784" s="6"/>
       <c r="F1784" s="6"/>
@@ -81179,28 +80626,28 @@
       <c r="T1792" s="6"/>
     </row>
     <row r="1793" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1793" s="16" t="s">
+      <c r="A1793" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="B1793" s="16"/>
-      <c r="C1793" s="17"/>
-      <c r="D1793" s="17"/>
-      <c r="E1793" s="17"/>
-      <c r="F1793" s="17"/>
-      <c r="G1793" s="17"/>
-      <c r="H1793" s="17"/>
-      <c r="I1793" s="17"/>
-      <c r="J1793" s="17"/>
-      <c r="K1793" s="17"/>
-      <c r="L1793" s="17"/>
-      <c r="M1793" s="17"/>
-      <c r="N1793" s="17"/>
-      <c r="O1793" s="17"/>
-      <c r="P1793" s="17"/>
-      <c r="Q1793" s="17"/>
-      <c r="R1793" s="17"/>
-      <c r="S1793" s="17"/>
-      <c r="T1793" s="17"/>
+      <c r="B1793" s="17"/>
+      <c r="C1793" s="18"/>
+      <c r="D1793" s="18"/>
+      <c r="E1793" s="18"/>
+      <c r="F1793" s="18"/>
+      <c r="G1793" s="18"/>
+      <c r="H1793" s="18"/>
+      <c r="I1793" s="18"/>
+      <c r="J1793" s="18"/>
+      <c r="K1793" s="18"/>
+      <c r="L1793" s="18"/>
+      <c r="M1793" s="18"/>
+      <c r="N1793" s="18"/>
+      <c r="O1793" s="18"/>
+      <c r="P1793" s="18"/>
+      <c r="Q1793" s="18"/>
+      <c r="R1793" s="18"/>
+      <c r="S1793" s="18"/>
+      <c r="T1793" s="18"/>
     </row>
     <row r="1794" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1794" s="2"/>
@@ -81249,11 +80696,11 @@
       <c r="T1795" s="5"/>
     </row>
     <row r="1796" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1796" s="12" t="s">
+      <c r="A1796" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="B1796" s="12"/>
-      <c r="C1796" s="12"/>
+      <c r="B1796" s="16"/>
+      <c r="C1796" s="16"/>
       <c r="D1796" s="6"/>
       <c r="E1796" s="6"/>
       <c r="F1796" s="6"/>
@@ -81477,28 +80924,28 @@
       <c r="T1804" s="6"/>
     </row>
     <row r="1805" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1805" s="16" t="s">
+      <c r="A1805" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="B1805" s="16"/>
-      <c r="C1805" s="17"/>
-      <c r="D1805" s="17"/>
-      <c r="E1805" s="17"/>
-      <c r="F1805" s="17"/>
-      <c r="G1805" s="17"/>
-      <c r="H1805" s="17"/>
-      <c r="I1805" s="17"/>
-      <c r="J1805" s="17"/>
-      <c r="K1805" s="17"/>
-      <c r="L1805" s="17"/>
-      <c r="M1805" s="17"/>
-      <c r="N1805" s="17"/>
-      <c r="O1805" s="17"/>
-      <c r="P1805" s="17"/>
-      <c r="Q1805" s="17"/>
-      <c r="R1805" s="17"/>
-      <c r="S1805" s="17"/>
-      <c r="T1805" s="17"/>
+      <c r="B1805" s="17"/>
+      <c r="C1805" s="18"/>
+      <c r="D1805" s="18"/>
+      <c r="E1805" s="18"/>
+      <c r="F1805" s="18"/>
+      <c r="G1805" s="18"/>
+      <c r="H1805" s="18"/>
+      <c r="I1805" s="18"/>
+      <c r="J1805" s="18"/>
+      <c r="K1805" s="18"/>
+      <c r="L1805" s="18"/>
+      <c r="M1805" s="18"/>
+      <c r="N1805" s="18"/>
+      <c r="O1805" s="18"/>
+      <c r="P1805" s="18"/>
+      <c r="Q1805" s="18"/>
+      <c r="R1805" s="18"/>
+      <c r="S1805" s="18"/>
+      <c r="T1805" s="18"/>
     </row>
     <row r="1806" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1806" s="2"/>
@@ -81547,11 +80994,11 @@
       <c r="T1807" s="5"/>
     </row>
     <row r="1808" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1808" s="12" t="s">
+      <c r="A1808" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="B1808" s="12"/>
-      <c r="C1808" s="12"/>
+      <c r="B1808" s="16"/>
+      <c r="C1808" s="16"/>
       <c r="D1808" s="6"/>
       <c r="E1808" s="6"/>
       <c r="F1808" s="6"/>
@@ -81847,11 +81294,11 @@
       <c r="T1819" s="5"/>
     </row>
     <row r="1820" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1820" s="12" t="s">
+      <c r="A1820" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="B1820" s="12"/>
-      <c r="C1820" s="12"/>
+      <c r="B1820" s="16"/>
+      <c r="C1820" s="16"/>
       <c r="D1820" s="6"/>
       <c r="E1820" s="6"/>
       <c r="F1820" s="6"/>
@@ -82133,11 +81580,11 @@
       <c r="T1830" s="5"/>
     </row>
     <row r="1831" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1831" s="12" t="s">
+      <c r="A1831" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="B1831" s="12"/>
-      <c r="C1831" s="12"/>
+      <c r="B1831" s="16"/>
+      <c r="C1831" s="16"/>
       <c r="D1831" s="6"/>
       <c r="E1831" s="6"/>
       <c r="F1831" s="6"/>
@@ -82347,28 +81794,28 @@
       <c r="T1838" s="6"/>
     </row>
     <row r="1839" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1839" s="16" t="s">
+      <c r="A1839" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="B1839" s="16"/>
-      <c r="C1839" s="17"/>
-      <c r="D1839" s="17"/>
-      <c r="E1839" s="17"/>
-      <c r="F1839" s="17"/>
-      <c r="G1839" s="17"/>
-      <c r="H1839" s="17"/>
-      <c r="I1839" s="17"/>
-      <c r="J1839" s="17"/>
-      <c r="K1839" s="17"/>
-      <c r="L1839" s="17"/>
-      <c r="M1839" s="17"/>
-      <c r="N1839" s="17"/>
-      <c r="O1839" s="17"/>
-      <c r="P1839" s="17"/>
-      <c r="Q1839" s="17"/>
-      <c r="R1839" s="17"/>
-      <c r="S1839" s="17"/>
-      <c r="T1839" s="17"/>
+      <c r="B1839" s="17"/>
+      <c r="C1839" s="18"/>
+      <c r="D1839" s="18"/>
+      <c r="E1839" s="18"/>
+      <c r="F1839" s="18"/>
+      <c r="G1839" s="18"/>
+      <c r="H1839" s="18"/>
+      <c r="I1839" s="18"/>
+      <c r="J1839" s="18"/>
+      <c r="K1839" s="18"/>
+      <c r="L1839" s="18"/>
+      <c r="M1839" s="18"/>
+      <c r="N1839" s="18"/>
+      <c r="O1839" s="18"/>
+      <c r="P1839" s="18"/>
+      <c r="Q1839" s="18"/>
+      <c r="R1839" s="18"/>
+      <c r="S1839" s="18"/>
+      <c r="T1839" s="18"/>
     </row>
     <row r="1840" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1840" s="2"/>
@@ -82465,11 +81912,11 @@
       </c>
     </row>
     <row r="1842" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1842" s="12" t="s">
+      <c r="A1842" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B1842" s="12"/>
-      <c r="C1842" s="12"/>
+      <c r="B1842" s="16"/>
+      <c r="C1842" s="16"/>
       <c r="D1842" s="6"/>
       <c r="E1842" s="6"/>
       <c r="F1842" s="6"/>
@@ -82865,11 +82312,11 @@
       </c>
     </row>
     <row r="1851" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1851" s="12" t="s">
+      <c r="A1851" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="B1851" s="12"/>
-      <c r="C1851" s="12"/>
+      <c r="B1851" s="16"/>
+      <c r="C1851" s="16"/>
       <c r="D1851" s="6"/>
       <c r="E1851" s="6"/>
       <c r="F1851" s="6"/>
@@ -83225,11 +82672,11 @@
       </c>
     </row>
     <row r="1860" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1860" s="12" t="s">
+      <c r="A1860" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B1860" s="12"/>
-      <c r="C1860" s="12"/>
+      <c r="B1860" s="16"/>
+      <c r="C1860" s="16"/>
       <c r="D1860" s="6"/>
       <c r="E1860" s="6"/>
       <c r="F1860" s="6"/>
@@ -83479,28 +82926,28 @@
       <c r="T1865" s="6"/>
     </row>
     <row r="1866" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1866" s="16" t="s">
+      <c r="A1866" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="B1866" s="16"/>
-      <c r="C1866" s="17"/>
-      <c r="D1866" s="17"/>
-      <c r="E1866" s="17"/>
-      <c r="F1866" s="17"/>
-      <c r="G1866" s="17"/>
-      <c r="H1866" s="17"/>
-      <c r="I1866" s="17"/>
-      <c r="J1866" s="17"/>
-      <c r="K1866" s="17"/>
-      <c r="L1866" s="17"/>
-      <c r="M1866" s="17"/>
-      <c r="N1866" s="17"/>
-      <c r="O1866" s="17"/>
-      <c r="P1866" s="17"/>
-      <c r="Q1866" s="17"/>
-      <c r="R1866" s="17"/>
-      <c r="S1866" s="17"/>
-      <c r="T1866" s="17"/>
+      <c r="B1866" s="17"/>
+      <c r="C1866" s="18"/>
+      <c r="D1866" s="18"/>
+      <c r="E1866" s="18"/>
+      <c r="F1866" s="18"/>
+      <c r="G1866" s="18"/>
+      <c r="H1866" s="18"/>
+      <c r="I1866" s="18"/>
+      <c r="J1866" s="18"/>
+      <c r="K1866" s="18"/>
+      <c r="L1866" s="18"/>
+      <c r="M1866" s="18"/>
+      <c r="N1866" s="18"/>
+      <c r="O1866" s="18"/>
+      <c r="P1866" s="18"/>
+      <c r="Q1866" s="18"/>
+      <c r="R1866" s="18"/>
+      <c r="S1866" s="18"/>
+      <c r="T1866" s="18"/>
     </row>
     <row r="1867" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1867" s="2"/>
@@ -83551,11 +82998,11 @@
       <c r="T1868" s="5"/>
     </row>
     <row r="1869" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1869" s="12" t="s">
+      <c r="A1869" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="B1869" s="12"/>
-      <c r="C1869" s="12"/>
+      <c r="B1869" s="16"/>
+      <c r="C1869" s="16"/>
       <c r="D1869" s="6"/>
       <c r="E1869" s="6"/>
       <c r="F1869" s="6"/>
@@ -84033,11 +83480,11 @@
       <c r="T1886" s="5"/>
     </row>
     <row r="1887" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1887" s="12" t="s">
+      <c r="A1887" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B1887" s="12"/>
-      <c r="C1887" s="12"/>
+      <c r="B1887" s="16"/>
+      <c r="C1887" s="16"/>
       <c r="D1887" s="6"/>
       <c r="E1887" s="6"/>
       <c r="F1887" s="6"/>
@@ -84422,6 +83869,1303 @@
     </row>
   </sheetData>
   <mergeCells count="1321">
+    <mergeCell ref="A1887:C1887"/>
+    <mergeCell ref="A1869:C1869"/>
+    <mergeCell ref="A1884:T1884"/>
+    <mergeCell ref="D1885:E1885"/>
+    <mergeCell ref="F1885:I1885"/>
+    <mergeCell ref="J1885:L1885"/>
+    <mergeCell ref="M1885:O1885"/>
+    <mergeCell ref="P1885:R1885"/>
+    <mergeCell ref="S1885:T1885"/>
+    <mergeCell ref="A1860:C1860"/>
+    <mergeCell ref="A1866:T1866"/>
+    <mergeCell ref="D1867:E1867"/>
+    <mergeCell ref="F1867:I1867"/>
+    <mergeCell ref="J1867:L1867"/>
+    <mergeCell ref="M1867:O1867"/>
+    <mergeCell ref="P1867:R1867"/>
+    <mergeCell ref="S1867:T1867"/>
+    <mergeCell ref="A1851:C1851"/>
+    <mergeCell ref="A1857:T1857"/>
+    <mergeCell ref="D1858:E1858"/>
+    <mergeCell ref="F1858:I1858"/>
+    <mergeCell ref="J1858:L1858"/>
+    <mergeCell ref="M1858:O1858"/>
+    <mergeCell ref="P1858:R1858"/>
+    <mergeCell ref="S1858:T1858"/>
+    <mergeCell ref="A1842:C1842"/>
+    <mergeCell ref="A1848:T1848"/>
+    <mergeCell ref="D1849:E1849"/>
+    <mergeCell ref="F1849:I1849"/>
+    <mergeCell ref="J1849:L1849"/>
+    <mergeCell ref="M1849:O1849"/>
+    <mergeCell ref="P1849:R1849"/>
+    <mergeCell ref="S1849:T1849"/>
+    <mergeCell ref="A1831:C1831"/>
+    <mergeCell ref="A1839:T1839"/>
+    <mergeCell ref="D1840:E1840"/>
+    <mergeCell ref="F1840:I1840"/>
+    <mergeCell ref="J1840:L1840"/>
+    <mergeCell ref="M1840:O1840"/>
+    <mergeCell ref="P1840:R1840"/>
+    <mergeCell ref="S1840:T1840"/>
+    <mergeCell ref="A1820:C1820"/>
+    <mergeCell ref="A1828:T1828"/>
+    <mergeCell ref="D1829:E1829"/>
+    <mergeCell ref="F1829:I1829"/>
+    <mergeCell ref="J1829:L1829"/>
+    <mergeCell ref="M1829:O1829"/>
+    <mergeCell ref="P1829:R1829"/>
+    <mergeCell ref="S1829:T1829"/>
+    <mergeCell ref="A1808:C1808"/>
+    <mergeCell ref="A1817:T1817"/>
+    <mergeCell ref="D1818:E1818"/>
+    <mergeCell ref="F1818:I1818"/>
+    <mergeCell ref="J1818:L1818"/>
+    <mergeCell ref="M1818:O1818"/>
+    <mergeCell ref="P1818:R1818"/>
+    <mergeCell ref="S1818:T1818"/>
+    <mergeCell ref="A1796:C1796"/>
+    <mergeCell ref="A1805:T1805"/>
+    <mergeCell ref="D1806:E1806"/>
+    <mergeCell ref="F1806:I1806"/>
+    <mergeCell ref="J1806:L1806"/>
+    <mergeCell ref="M1806:O1806"/>
+    <mergeCell ref="P1806:R1806"/>
+    <mergeCell ref="S1806:T1806"/>
+    <mergeCell ref="A1784:C1784"/>
+    <mergeCell ref="A1793:T1793"/>
+    <mergeCell ref="D1794:E1794"/>
+    <mergeCell ref="F1794:I1794"/>
+    <mergeCell ref="J1794:L1794"/>
+    <mergeCell ref="M1794:O1794"/>
+    <mergeCell ref="P1794:R1794"/>
+    <mergeCell ref="S1794:T1794"/>
+    <mergeCell ref="A1772:C1772"/>
+    <mergeCell ref="A1781:T1781"/>
+    <mergeCell ref="D1782:E1782"/>
+    <mergeCell ref="F1782:I1782"/>
+    <mergeCell ref="J1782:L1782"/>
+    <mergeCell ref="M1782:O1782"/>
+    <mergeCell ref="P1782:R1782"/>
+    <mergeCell ref="S1782:T1782"/>
+    <mergeCell ref="A1760:C1760"/>
+    <mergeCell ref="A1769:T1769"/>
+    <mergeCell ref="D1770:E1770"/>
+    <mergeCell ref="F1770:I1770"/>
+    <mergeCell ref="J1770:L1770"/>
+    <mergeCell ref="M1770:O1770"/>
+    <mergeCell ref="P1770:R1770"/>
+    <mergeCell ref="S1770:T1770"/>
+    <mergeCell ref="A1748:C1748"/>
+    <mergeCell ref="A1757:T1757"/>
+    <mergeCell ref="D1758:E1758"/>
+    <mergeCell ref="F1758:I1758"/>
+    <mergeCell ref="J1758:L1758"/>
+    <mergeCell ref="M1758:O1758"/>
+    <mergeCell ref="P1758:R1758"/>
+    <mergeCell ref="S1758:T1758"/>
+    <mergeCell ref="A1736:C1736"/>
+    <mergeCell ref="A1745:T1745"/>
+    <mergeCell ref="D1746:E1746"/>
+    <mergeCell ref="F1746:I1746"/>
+    <mergeCell ref="J1746:L1746"/>
+    <mergeCell ref="M1746:O1746"/>
+    <mergeCell ref="P1746:R1746"/>
+    <mergeCell ref="S1746:T1746"/>
+    <mergeCell ref="A1724:C1724"/>
+    <mergeCell ref="A1733:T1733"/>
+    <mergeCell ref="D1734:E1734"/>
+    <mergeCell ref="F1734:I1734"/>
+    <mergeCell ref="J1734:L1734"/>
+    <mergeCell ref="M1734:O1734"/>
+    <mergeCell ref="P1734:R1734"/>
+    <mergeCell ref="S1734:T1734"/>
+    <mergeCell ref="A1712:C1712"/>
+    <mergeCell ref="A1721:T1721"/>
+    <mergeCell ref="D1722:E1722"/>
+    <mergeCell ref="F1722:I1722"/>
+    <mergeCell ref="J1722:L1722"/>
+    <mergeCell ref="M1722:O1722"/>
+    <mergeCell ref="P1722:R1722"/>
+    <mergeCell ref="S1722:T1722"/>
+    <mergeCell ref="A1700:C1700"/>
+    <mergeCell ref="A1709:T1709"/>
+    <mergeCell ref="D1710:E1710"/>
+    <mergeCell ref="F1710:I1710"/>
+    <mergeCell ref="J1710:L1710"/>
+    <mergeCell ref="M1710:O1710"/>
+    <mergeCell ref="P1710:R1710"/>
+    <mergeCell ref="S1710:T1710"/>
+    <mergeCell ref="A1688:C1688"/>
+    <mergeCell ref="A1697:T1697"/>
+    <mergeCell ref="D1698:E1698"/>
+    <mergeCell ref="F1698:I1698"/>
+    <mergeCell ref="J1698:L1698"/>
+    <mergeCell ref="M1698:O1698"/>
+    <mergeCell ref="P1698:R1698"/>
+    <mergeCell ref="S1698:T1698"/>
+    <mergeCell ref="A1679:C1679"/>
+    <mergeCell ref="A1685:T1685"/>
+    <mergeCell ref="D1686:E1686"/>
+    <mergeCell ref="F1686:I1686"/>
+    <mergeCell ref="J1686:L1686"/>
+    <mergeCell ref="M1686:O1686"/>
+    <mergeCell ref="P1686:R1686"/>
+    <mergeCell ref="S1686:T1686"/>
+    <mergeCell ref="A1667:C1667"/>
+    <mergeCell ref="A1676:T1676"/>
+    <mergeCell ref="D1677:E1677"/>
+    <mergeCell ref="F1677:I1677"/>
+    <mergeCell ref="J1677:L1677"/>
+    <mergeCell ref="M1677:O1677"/>
+    <mergeCell ref="P1677:R1677"/>
+    <mergeCell ref="S1677:T1677"/>
+    <mergeCell ref="A1657:C1657"/>
+    <mergeCell ref="A1664:T1664"/>
+    <mergeCell ref="D1665:E1665"/>
+    <mergeCell ref="F1665:I1665"/>
+    <mergeCell ref="J1665:L1665"/>
+    <mergeCell ref="M1665:O1665"/>
+    <mergeCell ref="P1665:R1665"/>
+    <mergeCell ref="S1665:T1665"/>
+    <mergeCell ref="A1648:C1648"/>
+    <mergeCell ref="A1654:T1654"/>
+    <mergeCell ref="D1655:E1655"/>
+    <mergeCell ref="F1655:I1655"/>
+    <mergeCell ref="J1655:L1655"/>
+    <mergeCell ref="M1655:O1655"/>
+    <mergeCell ref="P1655:R1655"/>
+    <mergeCell ref="S1655:T1655"/>
+    <mergeCell ref="A1636:C1636"/>
+    <mergeCell ref="A1645:T1645"/>
+    <mergeCell ref="D1646:E1646"/>
+    <mergeCell ref="F1646:I1646"/>
+    <mergeCell ref="J1646:L1646"/>
+    <mergeCell ref="M1646:O1646"/>
+    <mergeCell ref="P1646:R1646"/>
+    <mergeCell ref="S1646:T1646"/>
+    <mergeCell ref="A1626:C1626"/>
+    <mergeCell ref="A1633:T1633"/>
+    <mergeCell ref="D1634:E1634"/>
+    <mergeCell ref="F1634:I1634"/>
+    <mergeCell ref="J1634:L1634"/>
+    <mergeCell ref="M1634:O1634"/>
+    <mergeCell ref="P1634:R1634"/>
+    <mergeCell ref="S1634:T1634"/>
+    <mergeCell ref="A1616:C1616"/>
+    <mergeCell ref="A1623:T1623"/>
+    <mergeCell ref="D1624:E1624"/>
+    <mergeCell ref="F1624:I1624"/>
+    <mergeCell ref="J1624:L1624"/>
+    <mergeCell ref="M1624:O1624"/>
+    <mergeCell ref="P1624:R1624"/>
+    <mergeCell ref="S1624:T1624"/>
+    <mergeCell ref="A1606:C1606"/>
+    <mergeCell ref="A1613:T1613"/>
+    <mergeCell ref="D1614:E1614"/>
+    <mergeCell ref="F1614:I1614"/>
+    <mergeCell ref="J1614:L1614"/>
+    <mergeCell ref="M1614:O1614"/>
+    <mergeCell ref="P1614:R1614"/>
+    <mergeCell ref="S1614:T1614"/>
+    <mergeCell ref="A1593:C1593"/>
+    <mergeCell ref="A1603:T1603"/>
+    <mergeCell ref="D1604:E1604"/>
+    <mergeCell ref="F1604:I1604"/>
+    <mergeCell ref="J1604:L1604"/>
+    <mergeCell ref="M1604:O1604"/>
+    <mergeCell ref="P1604:R1604"/>
+    <mergeCell ref="S1604:T1604"/>
+    <mergeCell ref="A1575:C1575"/>
+    <mergeCell ref="A1590:T1590"/>
+    <mergeCell ref="D1591:E1591"/>
+    <mergeCell ref="F1591:I1591"/>
+    <mergeCell ref="J1591:L1591"/>
+    <mergeCell ref="M1591:O1591"/>
+    <mergeCell ref="P1591:R1591"/>
+    <mergeCell ref="S1591:T1591"/>
+    <mergeCell ref="A1563:C1563"/>
+    <mergeCell ref="A1572:T1572"/>
+    <mergeCell ref="D1573:E1573"/>
+    <mergeCell ref="F1573:I1573"/>
+    <mergeCell ref="J1573:L1573"/>
+    <mergeCell ref="M1573:O1573"/>
+    <mergeCell ref="P1573:R1573"/>
+    <mergeCell ref="S1573:T1573"/>
+    <mergeCell ref="A1554:C1554"/>
+    <mergeCell ref="A1560:T1560"/>
+    <mergeCell ref="D1561:E1561"/>
+    <mergeCell ref="F1561:I1561"/>
+    <mergeCell ref="J1561:L1561"/>
+    <mergeCell ref="M1561:O1561"/>
+    <mergeCell ref="P1561:R1561"/>
+    <mergeCell ref="S1561:T1561"/>
+    <mergeCell ref="A1542:C1542"/>
+    <mergeCell ref="A1551:T1551"/>
+    <mergeCell ref="D1552:E1552"/>
+    <mergeCell ref="F1552:I1552"/>
+    <mergeCell ref="J1552:L1552"/>
+    <mergeCell ref="M1552:O1552"/>
+    <mergeCell ref="P1552:R1552"/>
+    <mergeCell ref="S1552:T1552"/>
+    <mergeCell ref="A1533:C1533"/>
+    <mergeCell ref="A1539:T1539"/>
+    <mergeCell ref="D1540:E1540"/>
+    <mergeCell ref="F1540:I1540"/>
+    <mergeCell ref="J1540:L1540"/>
+    <mergeCell ref="M1540:O1540"/>
+    <mergeCell ref="P1540:R1540"/>
+    <mergeCell ref="S1540:T1540"/>
+    <mergeCell ref="A1524:C1524"/>
+    <mergeCell ref="A1530:T1530"/>
+    <mergeCell ref="D1531:E1531"/>
+    <mergeCell ref="F1531:I1531"/>
+    <mergeCell ref="J1531:L1531"/>
+    <mergeCell ref="M1531:O1531"/>
+    <mergeCell ref="P1531:R1531"/>
+    <mergeCell ref="S1531:T1531"/>
+    <mergeCell ref="A1515:C1515"/>
+    <mergeCell ref="A1521:T1521"/>
+    <mergeCell ref="D1522:E1522"/>
+    <mergeCell ref="F1522:I1522"/>
+    <mergeCell ref="J1522:L1522"/>
+    <mergeCell ref="M1522:O1522"/>
+    <mergeCell ref="P1522:R1522"/>
+    <mergeCell ref="S1522:T1522"/>
+    <mergeCell ref="A1505:C1505"/>
+    <mergeCell ref="A1512:T1512"/>
+    <mergeCell ref="D1513:E1513"/>
+    <mergeCell ref="F1513:I1513"/>
+    <mergeCell ref="J1513:L1513"/>
+    <mergeCell ref="M1513:O1513"/>
+    <mergeCell ref="P1513:R1513"/>
+    <mergeCell ref="S1513:T1513"/>
+    <mergeCell ref="A1495:C1495"/>
+    <mergeCell ref="A1502:T1502"/>
+    <mergeCell ref="D1503:E1503"/>
+    <mergeCell ref="F1503:I1503"/>
+    <mergeCell ref="J1503:L1503"/>
+    <mergeCell ref="M1503:O1503"/>
+    <mergeCell ref="P1503:R1503"/>
+    <mergeCell ref="S1503:T1503"/>
+    <mergeCell ref="A1485:C1485"/>
+    <mergeCell ref="A1492:T1492"/>
+    <mergeCell ref="D1493:E1493"/>
+    <mergeCell ref="F1493:I1493"/>
+    <mergeCell ref="J1493:L1493"/>
+    <mergeCell ref="M1493:O1493"/>
+    <mergeCell ref="P1493:R1493"/>
+    <mergeCell ref="S1493:T1493"/>
+    <mergeCell ref="A1475:C1475"/>
+    <mergeCell ref="A1482:T1482"/>
+    <mergeCell ref="D1483:E1483"/>
+    <mergeCell ref="F1483:I1483"/>
+    <mergeCell ref="J1483:L1483"/>
+    <mergeCell ref="M1483:O1483"/>
+    <mergeCell ref="P1483:R1483"/>
+    <mergeCell ref="S1483:T1483"/>
+    <mergeCell ref="A1465:C1465"/>
+    <mergeCell ref="A1472:T1472"/>
+    <mergeCell ref="D1473:E1473"/>
+    <mergeCell ref="F1473:I1473"/>
+    <mergeCell ref="J1473:L1473"/>
+    <mergeCell ref="M1473:O1473"/>
+    <mergeCell ref="P1473:R1473"/>
+    <mergeCell ref="S1473:T1473"/>
+    <mergeCell ref="A1455:C1455"/>
+    <mergeCell ref="A1462:T1462"/>
+    <mergeCell ref="D1463:E1463"/>
+    <mergeCell ref="F1463:I1463"/>
+    <mergeCell ref="J1463:L1463"/>
+    <mergeCell ref="M1463:O1463"/>
+    <mergeCell ref="P1463:R1463"/>
+    <mergeCell ref="S1463:T1463"/>
+    <mergeCell ref="A1452:T1452"/>
+    <mergeCell ref="D1453:E1453"/>
+    <mergeCell ref="F1453:I1453"/>
+    <mergeCell ref="J1453:L1453"/>
+    <mergeCell ref="M1453:O1453"/>
+    <mergeCell ref="P1453:R1453"/>
+    <mergeCell ref="S1453:T1453"/>
+    <mergeCell ref="A1442:C1442"/>
+    <mergeCell ref="A1451:T1451"/>
+    <mergeCell ref="A1430:C1430"/>
+    <mergeCell ref="A1439:T1439"/>
+    <mergeCell ref="D1440:E1440"/>
+    <mergeCell ref="F1440:I1440"/>
+    <mergeCell ref="J1440:L1440"/>
+    <mergeCell ref="M1440:O1440"/>
+    <mergeCell ref="P1440:R1440"/>
+    <mergeCell ref="S1440:T1440"/>
+    <mergeCell ref="A1421:C1421"/>
+    <mergeCell ref="A1427:T1427"/>
+    <mergeCell ref="D1428:E1428"/>
+    <mergeCell ref="F1428:I1428"/>
+    <mergeCell ref="J1428:L1428"/>
+    <mergeCell ref="M1428:O1428"/>
+    <mergeCell ref="P1428:R1428"/>
+    <mergeCell ref="S1428:T1428"/>
+    <mergeCell ref="A1412:C1412"/>
+    <mergeCell ref="A1418:T1418"/>
+    <mergeCell ref="D1419:E1419"/>
+    <mergeCell ref="F1419:I1419"/>
+    <mergeCell ref="J1419:L1419"/>
+    <mergeCell ref="M1419:O1419"/>
+    <mergeCell ref="P1419:R1419"/>
+    <mergeCell ref="S1419:T1419"/>
+    <mergeCell ref="A1403:C1403"/>
+    <mergeCell ref="A1409:T1409"/>
+    <mergeCell ref="D1410:E1410"/>
+    <mergeCell ref="F1410:I1410"/>
+    <mergeCell ref="J1410:L1410"/>
+    <mergeCell ref="M1410:O1410"/>
+    <mergeCell ref="P1410:R1410"/>
+    <mergeCell ref="S1410:T1410"/>
+    <mergeCell ref="A1394:C1394"/>
+    <mergeCell ref="A1400:T1400"/>
+    <mergeCell ref="D1401:E1401"/>
+    <mergeCell ref="F1401:I1401"/>
+    <mergeCell ref="J1401:L1401"/>
+    <mergeCell ref="M1401:O1401"/>
+    <mergeCell ref="P1401:R1401"/>
+    <mergeCell ref="S1401:T1401"/>
+    <mergeCell ref="A1385:C1385"/>
+    <mergeCell ref="A1391:T1391"/>
+    <mergeCell ref="D1392:E1392"/>
+    <mergeCell ref="F1392:I1392"/>
+    <mergeCell ref="J1392:L1392"/>
+    <mergeCell ref="M1392:O1392"/>
+    <mergeCell ref="P1392:R1392"/>
+    <mergeCell ref="S1392:T1392"/>
+    <mergeCell ref="A1382:T1382"/>
+    <mergeCell ref="D1383:E1383"/>
+    <mergeCell ref="F1383:I1383"/>
+    <mergeCell ref="J1383:L1383"/>
+    <mergeCell ref="M1383:O1383"/>
+    <mergeCell ref="P1383:R1383"/>
+    <mergeCell ref="S1383:T1383"/>
+    <mergeCell ref="A1367:C1367"/>
+    <mergeCell ref="A1373:T1373"/>
+    <mergeCell ref="D1374:E1374"/>
+    <mergeCell ref="F1374:I1374"/>
+    <mergeCell ref="J1374:L1374"/>
+    <mergeCell ref="M1374:O1374"/>
+    <mergeCell ref="P1374:R1374"/>
+    <mergeCell ref="S1374:T1374"/>
+    <mergeCell ref="A1356:C1356"/>
+    <mergeCell ref="A1364:T1364"/>
+    <mergeCell ref="D1365:E1365"/>
+    <mergeCell ref="F1365:I1365"/>
+    <mergeCell ref="J1365:L1365"/>
+    <mergeCell ref="M1365:O1365"/>
+    <mergeCell ref="P1365:R1365"/>
+    <mergeCell ref="S1365:T1365"/>
+    <mergeCell ref="A1347:C1347"/>
+    <mergeCell ref="A1353:T1353"/>
+    <mergeCell ref="D1354:E1354"/>
+    <mergeCell ref="F1354:I1354"/>
+    <mergeCell ref="J1354:L1354"/>
+    <mergeCell ref="M1354:O1354"/>
+    <mergeCell ref="P1354:R1354"/>
+    <mergeCell ref="S1354:T1354"/>
+    <mergeCell ref="A1344:T1344"/>
+    <mergeCell ref="D1345:E1345"/>
+    <mergeCell ref="F1345:I1345"/>
+    <mergeCell ref="J1345:L1345"/>
+    <mergeCell ref="M1345:O1345"/>
+    <mergeCell ref="P1345:R1345"/>
+    <mergeCell ref="S1345:T1345"/>
+    <mergeCell ref="A1338:C1338"/>
+    <mergeCell ref="A1376:C1376"/>
+    <mergeCell ref="A1321:C1321"/>
+    <mergeCell ref="A1335:T1335"/>
+    <mergeCell ref="D1336:E1336"/>
+    <mergeCell ref="F1336:I1336"/>
+    <mergeCell ref="J1336:L1336"/>
+    <mergeCell ref="M1336:O1336"/>
+    <mergeCell ref="P1336:R1336"/>
+    <mergeCell ref="S1336:T1336"/>
+    <mergeCell ref="A1307:C1307"/>
+    <mergeCell ref="A1318:T1318"/>
+    <mergeCell ref="D1319:E1319"/>
+    <mergeCell ref="F1319:I1319"/>
+    <mergeCell ref="J1319:L1319"/>
+    <mergeCell ref="M1319:O1319"/>
+    <mergeCell ref="P1319:R1319"/>
+    <mergeCell ref="S1319:T1319"/>
+    <mergeCell ref="A1287:C1287"/>
+    <mergeCell ref="A1304:T1304"/>
+    <mergeCell ref="D1305:E1305"/>
+    <mergeCell ref="F1305:I1305"/>
+    <mergeCell ref="J1305:L1305"/>
+    <mergeCell ref="M1305:O1305"/>
+    <mergeCell ref="P1305:R1305"/>
+    <mergeCell ref="S1305:T1305"/>
+    <mergeCell ref="A1277:C1277"/>
+    <mergeCell ref="A1284:T1284"/>
+    <mergeCell ref="D1285:E1285"/>
+    <mergeCell ref="F1285:I1285"/>
+    <mergeCell ref="J1285:L1285"/>
+    <mergeCell ref="M1285:O1285"/>
+    <mergeCell ref="P1285:R1285"/>
+    <mergeCell ref="S1285:T1285"/>
+    <mergeCell ref="A1261:C1261"/>
+    <mergeCell ref="A1274:T1274"/>
+    <mergeCell ref="D1275:E1275"/>
+    <mergeCell ref="F1275:I1275"/>
+    <mergeCell ref="J1275:L1275"/>
+    <mergeCell ref="M1275:O1275"/>
+    <mergeCell ref="P1275:R1275"/>
+    <mergeCell ref="S1275:T1275"/>
+    <mergeCell ref="A1247:C1247"/>
+    <mergeCell ref="A1258:T1258"/>
+    <mergeCell ref="D1259:E1259"/>
+    <mergeCell ref="F1259:I1259"/>
+    <mergeCell ref="J1259:L1259"/>
+    <mergeCell ref="M1259:O1259"/>
+    <mergeCell ref="P1259:R1259"/>
+    <mergeCell ref="S1259:T1259"/>
+    <mergeCell ref="A1228:C1228"/>
+    <mergeCell ref="A1244:T1244"/>
+    <mergeCell ref="D1245:E1245"/>
+    <mergeCell ref="F1245:I1245"/>
+    <mergeCell ref="J1245:L1245"/>
+    <mergeCell ref="M1245:O1245"/>
+    <mergeCell ref="P1245:R1245"/>
+    <mergeCell ref="S1245:T1245"/>
+    <mergeCell ref="A1218:C1218"/>
+    <mergeCell ref="A1225:T1225"/>
+    <mergeCell ref="D1226:E1226"/>
+    <mergeCell ref="F1226:I1226"/>
+    <mergeCell ref="J1226:L1226"/>
+    <mergeCell ref="M1226:O1226"/>
+    <mergeCell ref="P1226:R1226"/>
+    <mergeCell ref="S1226:T1226"/>
+    <mergeCell ref="A1204:C1204"/>
+    <mergeCell ref="A1215:T1215"/>
+    <mergeCell ref="D1216:E1216"/>
+    <mergeCell ref="F1216:I1216"/>
+    <mergeCell ref="J1216:L1216"/>
+    <mergeCell ref="M1216:O1216"/>
+    <mergeCell ref="P1216:R1216"/>
+    <mergeCell ref="S1216:T1216"/>
+    <mergeCell ref="A1185:C1185"/>
+    <mergeCell ref="A1201:T1201"/>
+    <mergeCell ref="D1202:E1202"/>
+    <mergeCell ref="F1202:I1202"/>
+    <mergeCell ref="J1202:L1202"/>
+    <mergeCell ref="M1202:O1202"/>
+    <mergeCell ref="P1202:R1202"/>
+    <mergeCell ref="S1202:T1202"/>
+    <mergeCell ref="A1175:C1175"/>
+    <mergeCell ref="A1182:T1182"/>
+    <mergeCell ref="D1183:E1183"/>
+    <mergeCell ref="F1183:I1183"/>
+    <mergeCell ref="J1183:L1183"/>
+    <mergeCell ref="M1183:O1183"/>
+    <mergeCell ref="P1183:R1183"/>
+    <mergeCell ref="S1183:T1183"/>
+    <mergeCell ref="A1172:T1172"/>
+    <mergeCell ref="D1173:E1173"/>
+    <mergeCell ref="F1173:I1173"/>
+    <mergeCell ref="J1173:L1173"/>
+    <mergeCell ref="M1173:O1173"/>
+    <mergeCell ref="P1173:R1173"/>
+    <mergeCell ref="S1173:T1173"/>
+    <mergeCell ref="A1164:C1164"/>
+    <mergeCell ref="A1171:T1171"/>
+    <mergeCell ref="A1154:C1154"/>
+    <mergeCell ref="A1161:T1161"/>
+    <mergeCell ref="D1162:E1162"/>
+    <mergeCell ref="F1162:I1162"/>
+    <mergeCell ref="J1162:L1162"/>
+    <mergeCell ref="M1162:O1162"/>
+    <mergeCell ref="P1162:R1162"/>
+    <mergeCell ref="S1162:T1162"/>
+    <mergeCell ref="A1144:C1144"/>
+    <mergeCell ref="A1151:T1151"/>
+    <mergeCell ref="D1152:E1152"/>
+    <mergeCell ref="F1152:I1152"/>
+    <mergeCell ref="J1152:L1152"/>
+    <mergeCell ref="M1152:O1152"/>
+    <mergeCell ref="P1152:R1152"/>
+    <mergeCell ref="S1152:T1152"/>
+    <mergeCell ref="A1131:C1131"/>
+    <mergeCell ref="A1141:T1141"/>
+    <mergeCell ref="D1142:E1142"/>
+    <mergeCell ref="F1142:I1142"/>
+    <mergeCell ref="J1142:L1142"/>
+    <mergeCell ref="M1142:O1142"/>
+    <mergeCell ref="P1142:R1142"/>
+    <mergeCell ref="S1142:T1142"/>
+    <mergeCell ref="A1121:C1121"/>
+    <mergeCell ref="A1128:T1128"/>
+    <mergeCell ref="D1129:E1129"/>
+    <mergeCell ref="F1129:I1129"/>
+    <mergeCell ref="J1129:L1129"/>
+    <mergeCell ref="M1129:O1129"/>
+    <mergeCell ref="P1129:R1129"/>
+    <mergeCell ref="S1129:T1129"/>
+    <mergeCell ref="A1111:C1111"/>
+    <mergeCell ref="A1118:T1118"/>
+    <mergeCell ref="D1119:E1119"/>
+    <mergeCell ref="F1119:I1119"/>
+    <mergeCell ref="J1119:L1119"/>
+    <mergeCell ref="M1119:O1119"/>
+    <mergeCell ref="P1119:R1119"/>
+    <mergeCell ref="S1119:T1119"/>
+    <mergeCell ref="A1101:C1101"/>
+    <mergeCell ref="A1108:T1108"/>
+    <mergeCell ref="D1109:E1109"/>
+    <mergeCell ref="F1109:I1109"/>
+    <mergeCell ref="J1109:L1109"/>
+    <mergeCell ref="M1109:O1109"/>
+    <mergeCell ref="P1109:R1109"/>
+    <mergeCell ref="S1109:T1109"/>
+    <mergeCell ref="A1090:C1090"/>
+    <mergeCell ref="A1098:T1098"/>
+    <mergeCell ref="D1099:E1099"/>
+    <mergeCell ref="F1099:I1099"/>
+    <mergeCell ref="J1099:L1099"/>
+    <mergeCell ref="M1099:O1099"/>
+    <mergeCell ref="P1099:R1099"/>
+    <mergeCell ref="S1099:T1099"/>
+    <mergeCell ref="A1080:C1080"/>
+    <mergeCell ref="A1087:T1087"/>
+    <mergeCell ref="D1088:E1088"/>
+    <mergeCell ref="F1088:I1088"/>
+    <mergeCell ref="J1088:L1088"/>
+    <mergeCell ref="M1088:O1088"/>
+    <mergeCell ref="P1088:R1088"/>
+    <mergeCell ref="S1088:T1088"/>
+    <mergeCell ref="A1070:C1070"/>
+    <mergeCell ref="A1077:T1077"/>
+    <mergeCell ref="D1078:E1078"/>
+    <mergeCell ref="F1078:I1078"/>
+    <mergeCell ref="J1078:L1078"/>
+    <mergeCell ref="M1078:O1078"/>
+    <mergeCell ref="P1078:R1078"/>
+    <mergeCell ref="S1078:T1078"/>
+    <mergeCell ref="A1059:C1059"/>
+    <mergeCell ref="A1067:T1067"/>
+    <mergeCell ref="D1068:E1068"/>
+    <mergeCell ref="F1068:I1068"/>
+    <mergeCell ref="J1068:L1068"/>
+    <mergeCell ref="M1068:O1068"/>
+    <mergeCell ref="P1068:R1068"/>
+    <mergeCell ref="S1068:T1068"/>
+    <mergeCell ref="A1049:C1049"/>
+    <mergeCell ref="A1056:T1056"/>
+    <mergeCell ref="D1057:E1057"/>
+    <mergeCell ref="F1057:I1057"/>
+    <mergeCell ref="J1057:L1057"/>
+    <mergeCell ref="M1057:O1057"/>
+    <mergeCell ref="P1057:R1057"/>
+    <mergeCell ref="S1057:T1057"/>
+    <mergeCell ref="A1046:T1046"/>
+    <mergeCell ref="D1047:E1047"/>
+    <mergeCell ref="F1047:I1047"/>
+    <mergeCell ref="J1047:L1047"/>
+    <mergeCell ref="M1047:O1047"/>
+    <mergeCell ref="P1047:R1047"/>
+    <mergeCell ref="S1047:T1047"/>
+    <mergeCell ref="A1037:C1037"/>
+    <mergeCell ref="A1045:T1045"/>
+    <mergeCell ref="A1025:C1025"/>
+    <mergeCell ref="A1034:T1034"/>
+    <mergeCell ref="D1035:E1035"/>
+    <mergeCell ref="F1035:I1035"/>
+    <mergeCell ref="J1035:L1035"/>
+    <mergeCell ref="M1035:O1035"/>
+    <mergeCell ref="P1035:R1035"/>
+    <mergeCell ref="S1035:T1035"/>
+    <mergeCell ref="A1014:C1014"/>
+    <mergeCell ref="A1022:T1022"/>
+    <mergeCell ref="D1023:E1023"/>
+    <mergeCell ref="F1023:I1023"/>
+    <mergeCell ref="J1023:L1023"/>
+    <mergeCell ref="M1023:O1023"/>
+    <mergeCell ref="P1023:R1023"/>
+    <mergeCell ref="S1023:T1023"/>
+    <mergeCell ref="A1004:C1004"/>
+    <mergeCell ref="A1011:T1011"/>
+    <mergeCell ref="D1012:E1012"/>
+    <mergeCell ref="F1012:I1012"/>
+    <mergeCell ref="J1012:L1012"/>
+    <mergeCell ref="M1012:O1012"/>
+    <mergeCell ref="P1012:R1012"/>
+    <mergeCell ref="S1012:T1012"/>
+    <mergeCell ref="A990:C990"/>
+    <mergeCell ref="A1001:T1001"/>
+    <mergeCell ref="D1002:E1002"/>
+    <mergeCell ref="F1002:I1002"/>
+    <mergeCell ref="J1002:L1002"/>
+    <mergeCell ref="M1002:O1002"/>
+    <mergeCell ref="P1002:R1002"/>
+    <mergeCell ref="S1002:T1002"/>
+    <mergeCell ref="A979:C979"/>
+    <mergeCell ref="A987:T987"/>
+    <mergeCell ref="D988:E988"/>
+    <mergeCell ref="F988:I988"/>
+    <mergeCell ref="J988:L988"/>
+    <mergeCell ref="M988:O988"/>
+    <mergeCell ref="P988:R988"/>
+    <mergeCell ref="S988:T988"/>
+    <mergeCell ref="A976:T976"/>
+    <mergeCell ref="D977:E977"/>
+    <mergeCell ref="F977:I977"/>
+    <mergeCell ref="J977:L977"/>
+    <mergeCell ref="M977:O977"/>
+    <mergeCell ref="P977:R977"/>
+    <mergeCell ref="S977:T977"/>
+    <mergeCell ref="A968:C968"/>
+    <mergeCell ref="A957:C957"/>
+    <mergeCell ref="A965:T965"/>
+    <mergeCell ref="D966:E966"/>
+    <mergeCell ref="F966:I966"/>
+    <mergeCell ref="J966:L966"/>
+    <mergeCell ref="M966:O966"/>
+    <mergeCell ref="P966:R966"/>
+    <mergeCell ref="S966:T966"/>
+    <mergeCell ref="A944:C944"/>
+    <mergeCell ref="A954:T954"/>
+    <mergeCell ref="D955:E955"/>
+    <mergeCell ref="F955:I955"/>
+    <mergeCell ref="J955:L955"/>
+    <mergeCell ref="M955:O955"/>
+    <mergeCell ref="P955:R955"/>
+    <mergeCell ref="S955:T955"/>
+    <mergeCell ref="A932:C932"/>
+    <mergeCell ref="A941:T941"/>
+    <mergeCell ref="D942:E942"/>
+    <mergeCell ref="F942:I942"/>
+    <mergeCell ref="J942:L942"/>
+    <mergeCell ref="M942:O942"/>
+    <mergeCell ref="P942:R942"/>
+    <mergeCell ref="S942:T942"/>
+    <mergeCell ref="A922:C922"/>
+    <mergeCell ref="A929:T929"/>
+    <mergeCell ref="D930:E930"/>
+    <mergeCell ref="F930:I930"/>
+    <mergeCell ref="J930:L930"/>
+    <mergeCell ref="M930:O930"/>
+    <mergeCell ref="P930:R930"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="A912:C912"/>
+    <mergeCell ref="A919:T919"/>
+    <mergeCell ref="D920:E920"/>
+    <mergeCell ref="F920:I920"/>
+    <mergeCell ref="J920:L920"/>
+    <mergeCell ref="M920:O920"/>
+    <mergeCell ref="P920:R920"/>
+    <mergeCell ref="S920:T920"/>
+    <mergeCell ref="A901:C901"/>
+    <mergeCell ref="A909:T909"/>
+    <mergeCell ref="D910:E910"/>
+    <mergeCell ref="F910:I910"/>
+    <mergeCell ref="J910:L910"/>
+    <mergeCell ref="M910:O910"/>
+    <mergeCell ref="P910:R910"/>
+    <mergeCell ref="S910:T910"/>
+    <mergeCell ref="A889:C889"/>
+    <mergeCell ref="A898:T898"/>
+    <mergeCell ref="D899:E899"/>
+    <mergeCell ref="F899:I899"/>
+    <mergeCell ref="J899:L899"/>
+    <mergeCell ref="M899:O899"/>
+    <mergeCell ref="P899:R899"/>
+    <mergeCell ref="S899:T899"/>
+    <mergeCell ref="A877:C877"/>
+    <mergeCell ref="A886:T886"/>
+    <mergeCell ref="D887:E887"/>
+    <mergeCell ref="F887:I887"/>
+    <mergeCell ref="J887:L887"/>
+    <mergeCell ref="M887:O887"/>
+    <mergeCell ref="P887:R887"/>
+    <mergeCell ref="S887:T887"/>
+    <mergeCell ref="A865:C865"/>
+    <mergeCell ref="A874:T874"/>
+    <mergeCell ref="D875:E875"/>
+    <mergeCell ref="F875:I875"/>
+    <mergeCell ref="J875:L875"/>
+    <mergeCell ref="M875:O875"/>
+    <mergeCell ref="P875:R875"/>
+    <mergeCell ref="S875:T875"/>
+    <mergeCell ref="A855:C855"/>
+    <mergeCell ref="A862:T862"/>
+    <mergeCell ref="D863:E863"/>
+    <mergeCell ref="F863:I863"/>
+    <mergeCell ref="J863:L863"/>
+    <mergeCell ref="M863:O863"/>
+    <mergeCell ref="P863:R863"/>
+    <mergeCell ref="S863:T863"/>
+    <mergeCell ref="A843:C843"/>
+    <mergeCell ref="A852:T852"/>
+    <mergeCell ref="D853:E853"/>
+    <mergeCell ref="F853:I853"/>
+    <mergeCell ref="J853:L853"/>
+    <mergeCell ref="M853:O853"/>
+    <mergeCell ref="P853:R853"/>
+    <mergeCell ref="S853:T853"/>
+    <mergeCell ref="A833:C833"/>
+    <mergeCell ref="A840:T840"/>
+    <mergeCell ref="D841:E841"/>
+    <mergeCell ref="F841:I841"/>
+    <mergeCell ref="J841:L841"/>
+    <mergeCell ref="M841:O841"/>
+    <mergeCell ref="P841:R841"/>
+    <mergeCell ref="S841:T841"/>
+    <mergeCell ref="A816:C816"/>
+    <mergeCell ref="A830:T830"/>
+    <mergeCell ref="D831:E831"/>
+    <mergeCell ref="F831:I831"/>
+    <mergeCell ref="J831:L831"/>
+    <mergeCell ref="M831:O831"/>
+    <mergeCell ref="P831:R831"/>
+    <mergeCell ref="S831:T831"/>
+    <mergeCell ref="A804:C804"/>
+    <mergeCell ref="A813:T813"/>
+    <mergeCell ref="D814:E814"/>
+    <mergeCell ref="F814:I814"/>
+    <mergeCell ref="J814:L814"/>
+    <mergeCell ref="M814:O814"/>
+    <mergeCell ref="P814:R814"/>
+    <mergeCell ref="S814:T814"/>
+    <mergeCell ref="A792:C792"/>
+    <mergeCell ref="A801:T801"/>
+    <mergeCell ref="D802:E802"/>
+    <mergeCell ref="F802:I802"/>
+    <mergeCell ref="J802:L802"/>
+    <mergeCell ref="M802:O802"/>
+    <mergeCell ref="P802:R802"/>
+    <mergeCell ref="S802:T802"/>
+    <mergeCell ref="A789:T789"/>
+    <mergeCell ref="D790:E790"/>
+    <mergeCell ref="F790:I790"/>
+    <mergeCell ref="J790:L790"/>
+    <mergeCell ref="M790:O790"/>
+    <mergeCell ref="P790:R790"/>
+    <mergeCell ref="S790:T790"/>
+    <mergeCell ref="A778:C778"/>
+    <mergeCell ref="A788:T788"/>
+    <mergeCell ref="A765:C765"/>
+    <mergeCell ref="A775:T775"/>
+    <mergeCell ref="D776:E776"/>
+    <mergeCell ref="F776:I776"/>
+    <mergeCell ref="J776:L776"/>
+    <mergeCell ref="M776:O776"/>
+    <mergeCell ref="P776:R776"/>
+    <mergeCell ref="S776:T776"/>
+    <mergeCell ref="A754:C754"/>
+    <mergeCell ref="A762:T762"/>
+    <mergeCell ref="D763:E763"/>
+    <mergeCell ref="F763:I763"/>
+    <mergeCell ref="J763:L763"/>
+    <mergeCell ref="M763:O763"/>
+    <mergeCell ref="P763:R763"/>
+    <mergeCell ref="S763:T763"/>
+    <mergeCell ref="A743:C743"/>
+    <mergeCell ref="A751:T751"/>
+    <mergeCell ref="D752:E752"/>
+    <mergeCell ref="F752:I752"/>
+    <mergeCell ref="J752:L752"/>
+    <mergeCell ref="M752:O752"/>
+    <mergeCell ref="P752:R752"/>
+    <mergeCell ref="S752:T752"/>
+    <mergeCell ref="A732:C732"/>
+    <mergeCell ref="A740:T740"/>
+    <mergeCell ref="D741:E741"/>
+    <mergeCell ref="F741:I741"/>
+    <mergeCell ref="J741:L741"/>
+    <mergeCell ref="M741:O741"/>
+    <mergeCell ref="P741:R741"/>
+    <mergeCell ref="S741:T741"/>
+    <mergeCell ref="A722:C722"/>
+    <mergeCell ref="A729:T729"/>
+    <mergeCell ref="D730:E730"/>
+    <mergeCell ref="F730:I730"/>
+    <mergeCell ref="J730:L730"/>
+    <mergeCell ref="M730:O730"/>
+    <mergeCell ref="P730:R730"/>
+    <mergeCell ref="S730:T730"/>
+    <mergeCell ref="A712:C712"/>
+    <mergeCell ref="A719:T719"/>
+    <mergeCell ref="D720:E720"/>
+    <mergeCell ref="F720:I720"/>
+    <mergeCell ref="J720:L720"/>
+    <mergeCell ref="M720:O720"/>
+    <mergeCell ref="P720:R720"/>
+    <mergeCell ref="S720:T720"/>
+    <mergeCell ref="A700:C700"/>
+    <mergeCell ref="A709:T709"/>
+    <mergeCell ref="D710:E710"/>
+    <mergeCell ref="F710:I710"/>
+    <mergeCell ref="J710:L710"/>
+    <mergeCell ref="M710:O710"/>
+    <mergeCell ref="P710:R710"/>
+    <mergeCell ref="S710:T710"/>
+    <mergeCell ref="A690:C690"/>
+    <mergeCell ref="A697:T697"/>
+    <mergeCell ref="D698:E698"/>
+    <mergeCell ref="F698:I698"/>
+    <mergeCell ref="J698:L698"/>
+    <mergeCell ref="M698:O698"/>
+    <mergeCell ref="P698:R698"/>
+    <mergeCell ref="S698:T698"/>
+    <mergeCell ref="A680:C680"/>
+    <mergeCell ref="A687:T687"/>
+    <mergeCell ref="D688:E688"/>
+    <mergeCell ref="F688:I688"/>
+    <mergeCell ref="J688:L688"/>
+    <mergeCell ref="M688:O688"/>
+    <mergeCell ref="P688:R688"/>
+    <mergeCell ref="S688:T688"/>
+    <mergeCell ref="A670:C670"/>
+    <mergeCell ref="A677:T677"/>
+    <mergeCell ref="D678:E678"/>
+    <mergeCell ref="F678:I678"/>
+    <mergeCell ref="J678:L678"/>
+    <mergeCell ref="M678:O678"/>
+    <mergeCell ref="P678:R678"/>
+    <mergeCell ref="S678:T678"/>
+    <mergeCell ref="A660:C660"/>
+    <mergeCell ref="A667:T667"/>
+    <mergeCell ref="D668:E668"/>
+    <mergeCell ref="F668:I668"/>
+    <mergeCell ref="J668:L668"/>
+    <mergeCell ref="M668:O668"/>
+    <mergeCell ref="P668:R668"/>
+    <mergeCell ref="S668:T668"/>
+    <mergeCell ref="A650:C650"/>
+    <mergeCell ref="A657:T657"/>
+    <mergeCell ref="D658:E658"/>
+    <mergeCell ref="F658:I658"/>
+    <mergeCell ref="J658:L658"/>
+    <mergeCell ref="M658:O658"/>
+    <mergeCell ref="P658:R658"/>
+    <mergeCell ref="S658:T658"/>
+    <mergeCell ref="A640:C640"/>
+    <mergeCell ref="A647:T647"/>
+    <mergeCell ref="D648:E648"/>
+    <mergeCell ref="F648:I648"/>
+    <mergeCell ref="J648:L648"/>
+    <mergeCell ref="M648:O648"/>
+    <mergeCell ref="P648:R648"/>
+    <mergeCell ref="S648:T648"/>
+    <mergeCell ref="A630:C630"/>
+    <mergeCell ref="A637:T637"/>
+    <mergeCell ref="D638:E638"/>
+    <mergeCell ref="F638:I638"/>
+    <mergeCell ref="J638:L638"/>
+    <mergeCell ref="M638:O638"/>
+    <mergeCell ref="P638:R638"/>
+    <mergeCell ref="S638:T638"/>
+    <mergeCell ref="A620:C620"/>
+    <mergeCell ref="A627:T627"/>
+    <mergeCell ref="D628:E628"/>
+    <mergeCell ref="F628:I628"/>
+    <mergeCell ref="J628:L628"/>
+    <mergeCell ref="M628:O628"/>
+    <mergeCell ref="P628:R628"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="A610:C610"/>
+    <mergeCell ref="A617:T617"/>
+    <mergeCell ref="D618:E618"/>
+    <mergeCell ref="F618:I618"/>
+    <mergeCell ref="J618:L618"/>
+    <mergeCell ref="M618:O618"/>
+    <mergeCell ref="P618:R618"/>
+    <mergeCell ref="S618:T618"/>
+    <mergeCell ref="A600:C600"/>
+    <mergeCell ref="A607:T607"/>
+    <mergeCell ref="D608:E608"/>
+    <mergeCell ref="F608:I608"/>
+    <mergeCell ref="J608:L608"/>
+    <mergeCell ref="M608:O608"/>
+    <mergeCell ref="P608:R608"/>
+    <mergeCell ref="S608:T608"/>
+    <mergeCell ref="A597:T597"/>
+    <mergeCell ref="D598:E598"/>
+    <mergeCell ref="F598:I598"/>
+    <mergeCell ref="J598:L598"/>
+    <mergeCell ref="M598:O598"/>
+    <mergeCell ref="P598:R598"/>
+    <mergeCell ref="S598:T598"/>
+    <mergeCell ref="A589:C589"/>
+    <mergeCell ref="A596:T596"/>
+    <mergeCell ref="A579:C579"/>
+    <mergeCell ref="A586:T586"/>
+    <mergeCell ref="D587:E587"/>
+    <mergeCell ref="F587:I587"/>
+    <mergeCell ref="J587:L587"/>
+    <mergeCell ref="M587:O587"/>
+    <mergeCell ref="P587:R587"/>
+    <mergeCell ref="S587:T587"/>
+    <mergeCell ref="A565:C565"/>
+    <mergeCell ref="A576:T576"/>
+    <mergeCell ref="D577:E577"/>
+    <mergeCell ref="F577:I577"/>
+    <mergeCell ref="J577:L577"/>
+    <mergeCell ref="M577:O577"/>
+    <mergeCell ref="P577:R577"/>
+    <mergeCell ref="S577:T577"/>
+    <mergeCell ref="A555:C555"/>
+    <mergeCell ref="A562:T562"/>
+    <mergeCell ref="D563:E563"/>
+    <mergeCell ref="F563:I563"/>
+    <mergeCell ref="J563:L563"/>
+    <mergeCell ref="M563:O563"/>
+    <mergeCell ref="P563:R563"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="A545:C545"/>
+    <mergeCell ref="A552:T552"/>
+    <mergeCell ref="D553:E553"/>
+    <mergeCell ref="F553:I553"/>
+    <mergeCell ref="J553:L553"/>
+    <mergeCell ref="M553:O553"/>
+    <mergeCell ref="P553:R553"/>
+    <mergeCell ref="S553:T553"/>
+    <mergeCell ref="A542:T542"/>
+    <mergeCell ref="D543:E543"/>
+    <mergeCell ref="F543:I543"/>
+    <mergeCell ref="J543:L543"/>
+    <mergeCell ref="M543:O543"/>
+    <mergeCell ref="P543:R543"/>
+    <mergeCell ref="S543:T543"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A528:T528"/>
+    <mergeCell ref="D529:E529"/>
+    <mergeCell ref="F529:I529"/>
+    <mergeCell ref="J529:L529"/>
+    <mergeCell ref="M529:O529"/>
+    <mergeCell ref="P529:R529"/>
+    <mergeCell ref="S529:T529"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A516:T516"/>
+    <mergeCell ref="D517:E517"/>
+    <mergeCell ref="F517:I517"/>
+    <mergeCell ref="J517:L517"/>
+    <mergeCell ref="M517:O517"/>
+    <mergeCell ref="P517:R517"/>
+    <mergeCell ref="S517:T517"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A506:T506"/>
+    <mergeCell ref="D507:E507"/>
+    <mergeCell ref="F507:I507"/>
+    <mergeCell ref="J507:L507"/>
+    <mergeCell ref="M507:O507"/>
+    <mergeCell ref="P507:R507"/>
+    <mergeCell ref="S507:T507"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A496:T496"/>
+    <mergeCell ref="D497:E497"/>
+    <mergeCell ref="F497:I497"/>
+    <mergeCell ref="J497:L497"/>
+    <mergeCell ref="M497:O497"/>
+    <mergeCell ref="P497:R497"/>
+    <mergeCell ref="S497:T497"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A481:T481"/>
+    <mergeCell ref="D482:E482"/>
+    <mergeCell ref="F482:I482"/>
+    <mergeCell ref="J482:L482"/>
+    <mergeCell ref="M482:O482"/>
+    <mergeCell ref="P482:R482"/>
+    <mergeCell ref="S482:T482"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A471:T471"/>
+    <mergeCell ref="D472:E472"/>
+    <mergeCell ref="F472:I472"/>
+    <mergeCell ref="J472:L472"/>
+    <mergeCell ref="M472:O472"/>
+    <mergeCell ref="P472:R472"/>
+    <mergeCell ref="S472:T472"/>
+    <mergeCell ref="A461:T461"/>
+    <mergeCell ref="D462:E462"/>
+    <mergeCell ref="F462:I462"/>
+    <mergeCell ref="J462:L462"/>
+    <mergeCell ref="M462:O462"/>
+    <mergeCell ref="P462:R462"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A460:T460"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A445:T445"/>
+    <mergeCell ref="D446:E446"/>
+    <mergeCell ref="F446:I446"/>
+    <mergeCell ref="J446:L446"/>
+    <mergeCell ref="M446:O446"/>
+    <mergeCell ref="P446:R446"/>
+    <mergeCell ref="S446:T446"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A432:T432"/>
+    <mergeCell ref="D433:E433"/>
+    <mergeCell ref="F433:I433"/>
+    <mergeCell ref="J433:L433"/>
+    <mergeCell ref="M433:O433"/>
+    <mergeCell ref="P433:R433"/>
+    <mergeCell ref="S433:T433"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A419:T419"/>
+    <mergeCell ref="D420:E420"/>
+    <mergeCell ref="F420:I420"/>
+    <mergeCell ref="J420:L420"/>
+    <mergeCell ref="M420:O420"/>
+    <mergeCell ref="P420:R420"/>
+    <mergeCell ref="S420:T420"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A406:T406"/>
+    <mergeCell ref="D407:E407"/>
+    <mergeCell ref="F407:I407"/>
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="M407:O407"/>
+    <mergeCell ref="P407:R407"/>
+    <mergeCell ref="S407:T407"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A393:T393"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="F394:I394"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="M394:O394"/>
+    <mergeCell ref="P394:R394"/>
+    <mergeCell ref="S394:T394"/>
+    <mergeCell ref="A380:T380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:I381"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="M381:O381"/>
+    <mergeCell ref="P381:R381"/>
+    <mergeCell ref="S381:T381"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A367:T367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="F368:I368"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="P368:R368"/>
+    <mergeCell ref="S368:T368"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A354:T354"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="F355:I355"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="M355:O355"/>
+    <mergeCell ref="P355:R355"/>
+    <mergeCell ref="S355:T355"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A341:T341"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="F342:I342"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="P342:R342"/>
+    <mergeCell ref="S342:T342"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A328:T328"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="F329:I329"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="P329:R329"/>
+    <mergeCell ref="S329:T329"/>
+    <mergeCell ref="A315:T315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="F316:I316"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="P316:R316"/>
+    <mergeCell ref="S316:T316"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A314:T314"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A302:T302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="F303:I303"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="P303:R303"/>
+    <mergeCell ref="S303:T303"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A290:T290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="P291:R291"/>
+    <mergeCell ref="S291:T291"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A278:T278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="P279:R279"/>
+    <mergeCell ref="S279:T279"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A266:T266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="F267:I267"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="P267:R267"/>
+    <mergeCell ref="S267:T267"/>
+    <mergeCell ref="A254:T254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:I255"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="P255:R255"/>
+    <mergeCell ref="S255:T255"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A253:T253"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A239:T239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:I240"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="P240:R240"/>
+    <mergeCell ref="S240:T240"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A229:T229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="P230:R230"/>
+    <mergeCell ref="S230:T230"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A219:T219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="P220:R220"/>
+    <mergeCell ref="S220:T220"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:T206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="J207:L207"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="P207:R207"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A195:T195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="P196:R196"/>
+    <mergeCell ref="S196:T196"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A182:T182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="J183:L183"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="P183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A169:T169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="J170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:R170"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:O158"/>
+    <mergeCell ref="P158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A145:T145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="P146:R146"/>
+    <mergeCell ref="S146:T146"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A133:T133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="P134:R134"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A121:T121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P122:R122"/>
+    <mergeCell ref="S122:T122"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:T109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:R110"/>
+    <mergeCell ref="S110:T110"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A97:T97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A85:T85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A73:T73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A61:T61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A49:T49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A37:T37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:T38"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -84446,1303 +85190,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A61:T61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A49:T49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A37:T37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A97:T97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A85:T85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A73:T73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A133:T133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="M134:O134"/>
-    <mergeCell ref="P134:R134"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A121:T121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="P122:R122"/>
-    <mergeCell ref="S122:T122"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:T109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="P110:R110"/>
-    <mergeCell ref="S110:T110"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A169:T169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="J170:L170"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:R170"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:O158"/>
-    <mergeCell ref="P158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A145:T145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="P146:R146"/>
-    <mergeCell ref="S146:T146"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:T206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="J207:L207"/>
-    <mergeCell ref="M207:O207"/>
-    <mergeCell ref="P207:R207"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A195:T195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="M196:O196"/>
-    <mergeCell ref="P196:R196"/>
-    <mergeCell ref="S196:T196"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A182:T182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="J183:L183"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="P183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A239:T239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:I240"/>
-    <mergeCell ref="J240:L240"/>
-    <mergeCell ref="M240:O240"/>
-    <mergeCell ref="P240:R240"/>
-    <mergeCell ref="S240:T240"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A229:T229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="J230:L230"/>
-    <mergeCell ref="M230:O230"/>
-    <mergeCell ref="P230:R230"/>
-    <mergeCell ref="S230:T230"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A219:T219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:I220"/>
-    <mergeCell ref="J220:L220"/>
-    <mergeCell ref="M220:O220"/>
-    <mergeCell ref="P220:R220"/>
-    <mergeCell ref="S220:T220"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A266:T266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="F267:I267"/>
-    <mergeCell ref="J267:L267"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="P267:R267"/>
-    <mergeCell ref="S267:T267"/>
-    <mergeCell ref="A254:T254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:I255"/>
-    <mergeCell ref="J255:L255"/>
-    <mergeCell ref="M255:O255"/>
-    <mergeCell ref="P255:R255"/>
-    <mergeCell ref="S255:T255"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A253:T253"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A302:T302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="F303:I303"/>
-    <mergeCell ref="J303:L303"/>
-    <mergeCell ref="M303:O303"/>
-    <mergeCell ref="P303:R303"/>
-    <mergeCell ref="S303:T303"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A290:T290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:L291"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="P291:R291"/>
-    <mergeCell ref="S291:T291"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A278:T278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="P279:R279"/>
-    <mergeCell ref="S279:T279"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A328:T328"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="F329:I329"/>
-    <mergeCell ref="J329:L329"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="P329:R329"/>
-    <mergeCell ref="S329:T329"/>
-    <mergeCell ref="A315:T315"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="F316:I316"/>
-    <mergeCell ref="J316:L316"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="P316:R316"/>
-    <mergeCell ref="S316:T316"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A314:T314"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A367:T367"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="F368:I368"/>
-    <mergeCell ref="J368:L368"/>
-    <mergeCell ref="M368:O368"/>
-    <mergeCell ref="P368:R368"/>
-    <mergeCell ref="S368:T368"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A354:T354"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="F355:I355"/>
-    <mergeCell ref="J355:L355"/>
-    <mergeCell ref="M355:O355"/>
-    <mergeCell ref="P355:R355"/>
-    <mergeCell ref="S355:T355"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A341:T341"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="F342:I342"/>
-    <mergeCell ref="J342:L342"/>
-    <mergeCell ref="M342:O342"/>
-    <mergeCell ref="P342:R342"/>
-    <mergeCell ref="S342:T342"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A406:T406"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="F407:I407"/>
-    <mergeCell ref="J407:L407"/>
-    <mergeCell ref="M407:O407"/>
-    <mergeCell ref="P407:R407"/>
-    <mergeCell ref="S407:T407"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A393:T393"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="F394:I394"/>
-    <mergeCell ref="J394:L394"/>
-    <mergeCell ref="M394:O394"/>
-    <mergeCell ref="P394:R394"/>
-    <mergeCell ref="S394:T394"/>
-    <mergeCell ref="A380:T380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:I381"/>
-    <mergeCell ref="J381:L381"/>
-    <mergeCell ref="M381:O381"/>
-    <mergeCell ref="P381:R381"/>
-    <mergeCell ref="S381:T381"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A445:T445"/>
-    <mergeCell ref="D446:E446"/>
-    <mergeCell ref="F446:I446"/>
-    <mergeCell ref="J446:L446"/>
-    <mergeCell ref="M446:O446"/>
-    <mergeCell ref="P446:R446"/>
-    <mergeCell ref="S446:T446"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A432:T432"/>
-    <mergeCell ref="D433:E433"/>
-    <mergeCell ref="F433:I433"/>
-    <mergeCell ref="J433:L433"/>
-    <mergeCell ref="M433:O433"/>
-    <mergeCell ref="P433:R433"/>
-    <mergeCell ref="S433:T433"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A419:T419"/>
-    <mergeCell ref="D420:E420"/>
-    <mergeCell ref="F420:I420"/>
-    <mergeCell ref="J420:L420"/>
-    <mergeCell ref="M420:O420"/>
-    <mergeCell ref="P420:R420"/>
-    <mergeCell ref="S420:T420"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A471:T471"/>
-    <mergeCell ref="D472:E472"/>
-    <mergeCell ref="F472:I472"/>
-    <mergeCell ref="J472:L472"/>
-    <mergeCell ref="M472:O472"/>
-    <mergeCell ref="P472:R472"/>
-    <mergeCell ref="S472:T472"/>
-    <mergeCell ref="A461:T461"/>
-    <mergeCell ref="D462:E462"/>
-    <mergeCell ref="F462:I462"/>
-    <mergeCell ref="J462:L462"/>
-    <mergeCell ref="M462:O462"/>
-    <mergeCell ref="P462:R462"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A460:T460"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A506:T506"/>
-    <mergeCell ref="D507:E507"/>
-    <mergeCell ref="F507:I507"/>
-    <mergeCell ref="J507:L507"/>
-    <mergeCell ref="M507:O507"/>
-    <mergeCell ref="P507:R507"/>
-    <mergeCell ref="S507:T507"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A496:T496"/>
-    <mergeCell ref="D497:E497"/>
-    <mergeCell ref="F497:I497"/>
-    <mergeCell ref="J497:L497"/>
-    <mergeCell ref="M497:O497"/>
-    <mergeCell ref="P497:R497"/>
-    <mergeCell ref="S497:T497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A481:T481"/>
-    <mergeCell ref="D482:E482"/>
-    <mergeCell ref="F482:I482"/>
-    <mergeCell ref="J482:L482"/>
-    <mergeCell ref="M482:O482"/>
-    <mergeCell ref="P482:R482"/>
-    <mergeCell ref="S482:T482"/>
-    <mergeCell ref="A542:T542"/>
-    <mergeCell ref="D543:E543"/>
-    <mergeCell ref="F543:I543"/>
-    <mergeCell ref="J543:L543"/>
-    <mergeCell ref="M543:O543"/>
-    <mergeCell ref="P543:R543"/>
-    <mergeCell ref="S543:T543"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A528:T528"/>
-    <mergeCell ref="D529:E529"/>
-    <mergeCell ref="F529:I529"/>
-    <mergeCell ref="J529:L529"/>
-    <mergeCell ref="M529:O529"/>
-    <mergeCell ref="P529:R529"/>
-    <mergeCell ref="S529:T529"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A516:T516"/>
-    <mergeCell ref="D517:E517"/>
-    <mergeCell ref="F517:I517"/>
-    <mergeCell ref="J517:L517"/>
-    <mergeCell ref="M517:O517"/>
-    <mergeCell ref="P517:R517"/>
-    <mergeCell ref="S517:T517"/>
-    <mergeCell ref="A565:C565"/>
-    <mergeCell ref="A576:T576"/>
-    <mergeCell ref="D577:E577"/>
-    <mergeCell ref="F577:I577"/>
-    <mergeCell ref="J577:L577"/>
-    <mergeCell ref="M577:O577"/>
-    <mergeCell ref="P577:R577"/>
-    <mergeCell ref="S577:T577"/>
-    <mergeCell ref="A555:C555"/>
-    <mergeCell ref="A562:T562"/>
-    <mergeCell ref="D563:E563"/>
-    <mergeCell ref="F563:I563"/>
-    <mergeCell ref="J563:L563"/>
-    <mergeCell ref="M563:O563"/>
-    <mergeCell ref="P563:R563"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="A545:C545"/>
-    <mergeCell ref="A552:T552"/>
-    <mergeCell ref="D553:E553"/>
-    <mergeCell ref="F553:I553"/>
-    <mergeCell ref="J553:L553"/>
-    <mergeCell ref="M553:O553"/>
-    <mergeCell ref="P553:R553"/>
-    <mergeCell ref="S553:T553"/>
-    <mergeCell ref="A597:T597"/>
-    <mergeCell ref="D598:E598"/>
-    <mergeCell ref="F598:I598"/>
-    <mergeCell ref="J598:L598"/>
-    <mergeCell ref="M598:O598"/>
-    <mergeCell ref="P598:R598"/>
-    <mergeCell ref="S598:T598"/>
-    <mergeCell ref="A589:C589"/>
-    <mergeCell ref="A596:T596"/>
-    <mergeCell ref="A579:C579"/>
-    <mergeCell ref="A586:T586"/>
-    <mergeCell ref="D587:E587"/>
-    <mergeCell ref="F587:I587"/>
-    <mergeCell ref="J587:L587"/>
-    <mergeCell ref="M587:O587"/>
-    <mergeCell ref="P587:R587"/>
-    <mergeCell ref="S587:T587"/>
-    <mergeCell ref="A620:C620"/>
-    <mergeCell ref="A627:T627"/>
-    <mergeCell ref="D628:E628"/>
-    <mergeCell ref="F628:I628"/>
-    <mergeCell ref="J628:L628"/>
-    <mergeCell ref="M628:O628"/>
-    <mergeCell ref="P628:R628"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="A610:C610"/>
-    <mergeCell ref="A617:T617"/>
-    <mergeCell ref="D618:E618"/>
-    <mergeCell ref="F618:I618"/>
-    <mergeCell ref="J618:L618"/>
-    <mergeCell ref="M618:O618"/>
-    <mergeCell ref="P618:R618"/>
-    <mergeCell ref="S618:T618"/>
-    <mergeCell ref="A600:C600"/>
-    <mergeCell ref="A607:T607"/>
-    <mergeCell ref="D608:E608"/>
-    <mergeCell ref="F608:I608"/>
-    <mergeCell ref="J608:L608"/>
-    <mergeCell ref="M608:O608"/>
-    <mergeCell ref="P608:R608"/>
-    <mergeCell ref="S608:T608"/>
-    <mergeCell ref="A650:C650"/>
-    <mergeCell ref="A657:T657"/>
-    <mergeCell ref="D658:E658"/>
-    <mergeCell ref="F658:I658"/>
-    <mergeCell ref="J658:L658"/>
-    <mergeCell ref="M658:O658"/>
-    <mergeCell ref="P658:R658"/>
-    <mergeCell ref="S658:T658"/>
-    <mergeCell ref="A640:C640"/>
-    <mergeCell ref="A647:T647"/>
-    <mergeCell ref="D648:E648"/>
-    <mergeCell ref="F648:I648"/>
-    <mergeCell ref="J648:L648"/>
-    <mergeCell ref="M648:O648"/>
-    <mergeCell ref="P648:R648"/>
-    <mergeCell ref="S648:T648"/>
-    <mergeCell ref="A630:C630"/>
-    <mergeCell ref="A637:T637"/>
-    <mergeCell ref="D638:E638"/>
-    <mergeCell ref="F638:I638"/>
-    <mergeCell ref="J638:L638"/>
-    <mergeCell ref="M638:O638"/>
-    <mergeCell ref="P638:R638"/>
-    <mergeCell ref="S638:T638"/>
-    <mergeCell ref="A680:C680"/>
-    <mergeCell ref="A687:T687"/>
-    <mergeCell ref="D688:E688"/>
-    <mergeCell ref="F688:I688"/>
-    <mergeCell ref="J688:L688"/>
-    <mergeCell ref="M688:O688"/>
-    <mergeCell ref="P688:R688"/>
-    <mergeCell ref="S688:T688"/>
-    <mergeCell ref="A670:C670"/>
-    <mergeCell ref="A677:T677"/>
-    <mergeCell ref="D678:E678"/>
-    <mergeCell ref="F678:I678"/>
-    <mergeCell ref="J678:L678"/>
-    <mergeCell ref="M678:O678"/>
-    <mergeCell ref="P678:R678"/>
-    <mergeCell ref="S678:T678"/>
-    <mergeCell ref="A660:C660"/>
-    <mergeCell ref="A667:T667"/>
-    <mergeCell ref="D668:E668"/>
-    <mergeCell ref="F668:I668"/>
-    <mergeCell ref="J668:L668"/>
-    <mergeCell ref="M668:O668"/>
-    <mergeCell ref="P668:R668"/>
-    <mergeCell ref="S668:T668"/>
-    <mergeCell ref="A712:C712"/>
-    <mergeCell ref="A719:T719"/>
-    <mergeCell ref="D720:E720"/>
-    <mergeCell ref="F720:I720"/>
-    <mergeCell ref="J720:L720"/>
-    <mergeCell ref="M720:O720"/>
-    <mergeCell ref="P720:R720"/>
-    <mergeCell ref="S720:T720"/>
-    <mergeCell ref="A700:C700"/>
-    <mergeCell ref="A709:T709"/>
-    <mergeCell ref="D710:E710"/>
-    <mergeCell ref="F710:I710"/>
-    <mergeCell ref="J710:L710"/>
-    <mergeCell ref="M710:O710"/>
-    <mergeCell ref="P710:R710"/>
-    <mergeCell ref="S710:T710"/>
-    <mergeCell ref="A690:C690"/>
-    <mergeCell ref="A697:T697"/>
-    <mergeCell ref="D698:E698"/>
-    <mergeCell ref="F698:I698"/>
-    <mergeCell ref="J698:L698"/>
-    <mergeCell ref="M698:O698"/>
-    <mergeCell ref="P698:R698"/>
-    <mergeCell ref="S698:T698"/>
-    <mergeCell ref="A743:C743"/>
-    <mergeCell ref="A751:T751"/>
-    <mergeCell ref="D752:E752"/>
-    <mergeCell ref="F752:I752"/>
-    <mergeCell ref="J752:L752"/>
-    <mergeCell ref="M752:O752"/>
-    <mergeCell ref="P752:R752"/>
-    <mergeCell ref="S752:T752"/>
-    <mergeCell ref="A732:C732"/>
-    <mergeCell ref="A740:T740"/>
-    <mergeCell ref="D741:E741"/>
-    <mergeCell ref="F741:I741"/>
-    <mergeCell ref="J741:L741"/>
-    <mergeCell ref="M741:O741"/>
-    <mergeCell ref="P741:R741"/>
-    <mergeCell ref="S741:T741"/>
-    <mergeCell ref="A722:C722"/>
-    <mergeCell ref="A729:T729"/>
-    <mergeCell ref="D730:E730"/>
-    <mergeCell ref="F730:I730"/>
-    <mergeCell ref="J730:L730"/>
-    <mergeCell ref="M730:O730"/>
-    <mergeCell ref="P730:R730"/>
-    <mergeCell ref="S730:T730"/>
-    <mergeCell ref="A778:C778"/>
-    <mergeCell ref="A788:T788"/>
-    <mergeCell ref="A765:C765"/>
-    <mergeCell ref="A775:T775"/>
-    <mergeCell ref="D776:E776"/>
-    <mergeCell ref="F776:I776"/>
-    <mergeCell ref="J776:L776"/>
-    <mergeCell ref="M776:O776"/>
-    <mergeCell ref="P776:R776"/>
-    <mergeCell ref="S776:T776"/>
-    <mergeCell ref="A754:C754"/>
-    <mergeCell ref="A762:T762"/>
-    <mergeCell ref="D763:E763"/>
-    <mergeCell ref="F763:I763"/>
-    <mergeCell ref="J763:L763"/>
-    <mergeCell ref="M763:O763"/>
-    <mergeCell ref="P763:R763"/>
-    <mergeCell ref="S763:T763"/>
-    <mergeCell ref="A804:C804"/>
-    <mergeCell ref="A813:T813"/>
-    <mergeCell ref="D814:E814"/>
-    <mergeCell ref="F814:I814"/>
-    <mergeCell ref="J814:L814"/>
-    <mergeCell ref="M814:O814"/>
-    <mergeCell ref="P814:R814"/>
-    <mergeCell ref="S814:T814"/>
-    <mergeCell ref="A792:C792"/>
-    <mergeCell ref="A801:T801"/>
-    <mergeCell ref="D802:E802"/>
-    <mergeCell ref="F802:I802"/>
-    <mergeCell ref="J802:L802"/>
-    <mergeCell ref="M802:O802"/>
-    <mergeCell ref="P802:R802"/>
-    <mergeCell ref="S802:T802"/>
-    <mergeCell ref="A789:T789"/>
-    <mergeCell ref="D790:E790"/>
-    <mergeCell ref="F790:I790"/>
-    <mergeCell ref="J790:L790"/>
-    <mergeCell ref="M790:O790"/>
-    <mergeCell ref="P790:R790"/>
-    <mergeCell ref="S790:T790"/>
-    <mergeCell ref="A843:C843"/>
-    <mergeCell ref="A852:T852"/>
-    <mergeCell ref="D853:E853"/>
-    <mergeCell ref="F853:I853"/>
-    <mergeCell ref="J853:L853"/>
-    <mergeCell ref="M853:O853"/>
-    <mergeCell ref="P853:R853"/>
-    <mergeCell ref="S853:T853"/>
-    <mergeCell ref="A833:C833"/>
-    <mergeCell ref="A840:T840"/>
-    <mergeCell ref="D841:E841"/>
-    <mergeCell ref="F841:I841"/>
-    <mergeCell ref="J841:L841"/>
-    <mergeCell ref="M841:O841"/>
-    <mergeCell ref="P841:R841"/>
-    <mergeCell ref="S841:T841"/>
-    <mergeCell ref="A816:C816"/>
-    <mergeCell ref="A830:T830"/>
-    <mergeCell ref="D831:E831"/>
-    <mergeCell ref="F831:I831"/>
-    <mergeCell ref="J831:L831"/>
-    <mergeCell ref="M831:O831"/>
-    <mergeCell ref="P831:R831"/>
-    <mergeCell ref="S831:T831"/>
-    <mergeCell ref="A877:C877"/>
-    <mergeCell ref="A886:T886"/>
-    <mergeCell ref="D887:E887"/>
-    <mergeCell ref="F887:I887"/>
-    <mergeCell ref="J887:L887"/>
-    <mergeCell ref="M887:O887"/>
-    <mergeCell ref="P887:R887"/>
-    <mergeCell ref="S887:T887"/>
-    <mergeCell ref="A865:C865"/>
-    <mergeCell ref="A874:T874"/>
-    <mergeCell ref="D875:E875"/>
-    <mergeCell ref="F875:I875"/>
-    <mergeCell ref="J875:L875"/>
-    <mergeCell ref="M875:O875"/>
-    <mergeCell ref="P875:R875"/>
-    <mergeCell ref="S875:T875"/>
-    <mergeCell ref="A855:C855"/>
-    <mergeCell ref="A862:T862"/>
-    <mergeCell ref="D863:E863"/>
-    <mergeCell ref="F863:I863"/>
-    <mergeCell ref="J863:L863"/>
-    <mergeCell ref="M863:O863"/>
-    <mergeCell ref="P863:R863"/>
-    <mergeCell ref="S863:T863"/>
-    <mergeCell ref="A912:C912"/>
-    <mergeCell ref="A919:T919"/>
-    <mergeCell ref="D920:E920"/>
-    <mergeCell ref="F920:I920"/>
-    <mergeCell ref="J920:L920"/>
-    <mergeCell ref="M920:O920"/>
-    <mergeCell ref="P920:R920"/>
-    <mergeCell ref="S920:T920"/>
-    <mergeCell ref="A901:C901"/>
-    <mergeCell ref="A909:T909"/>
-    <mergeCell ref="D910:E910"/>
-    <mergeCell ref="F910:I910"/>
-    <mergeCell ref="J910:L910"/>
-    <mergeCell ref="M910:O910"/>
-    <mergeCell ref="P910:R910"/>
-    <mergeCell ref="S910:T910"/>
-    <mergeCell ref="A889:C889"/>
-    <mergeCell ref="A898:T898"/>
-    <mergeCell ref="D899:E899"/>
-    <mergeCell ref="F899:I899"/>
-    <mergeCell ref="J899:L899"/>
-    <mergeCell ref="M899:O899"/>
-    <mergeCell ref="P899:R899"/>
-    <mergeCell ref="S899:T899"/>
-    <mergeCell ref="A944:C944"/>
-    <mergeCell ref="A954:T954"/>
-    <mergeCell ref="D955:E955"/>
-    <mergeCell ref="F955:I955"/>
-    <mergeCell ref="J955:L955"/>
-    <mergeCell ref="M955:O955"/>
-    <mergeCell ref="P955:R955"/>
-    <mergeCell ref="S955:T955"/>
-    <mergeCell ref="A932:C932"/>
-    <mergeCell ref="A941:T941"/>
-    <mergeCell ref="D942:E942"/>
-    <mergeCell ref="F942:I942"/>
-    <mergeCell ref="J942:L942"/>
-    <mergeCell ref="M942:O942"/>
-    <mergeCell ref="P942:R942"/>
-    <mergeCell ref="S942:T942"/>
-    <mergeCell ref="A922:C922"/>
-    <mergeCell ref="A929:T929"/>
-    <mergeCell ref="D930:E930"/>
-    <mergeCell ref="F930:I930"/>
-    <mergeCell ref="J930:L930"/>
-    <mergeCell ref="M930:O930"/>
-    <mergeCell ref="P930:R930"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="A979:C979"/>
-    <mergeCell ref="A987:T987"/>
-    <mergeCell ref="D988:E988"/>
-    <mergeCell ref="F988:I988"/>
-    <mergeCell ref="J988:L988"/>
-    <mergeCell ref="M988:O988"/>
-    <mergeCell ref="P988:R988"/>
-    <mergeCell ref="S988:T988"/>
-    <mergeCell ref="A976:T976"/>
-    <mergeCell ref="D977:E977"/>
-    <mergeCell ref="F977:I977"/>
-    <mergeCell ref="J977:L977"/>
-    <mergeCell ref="M977:O977"/>
-    <mergeCell ref="P977:R977"/>
-    <mergeCell ref="S977:T977"/>
-    <mergeCell ref="A968:C968"/>
-    <mergeCell ref="A957:C957"/>
-    <mergeCell ref="A965:T965"/>
-    <mergeCell ref="D966:E966"/>
-    <mergeCell ref="F966:I966"/>
-    <mergeCell ref="J966:L966"/>
-    <mergeCell ref="M966:O966"/>
-    <mergeCell ref="P966:R966"/>
-    <mergeCell ref="S966:T966"/>
-    <mergeCell ref="A1014:C1014"/>
-    <mergeCell ref="A1022:T1022"/>
-    <mergeCell ref="D1023:E1023"/>
-    <mergeCell ref="F1023:I1023"/>
-    <mergeCell ref="J1023:L1023"/>
-    <mergeCell ref="M1023:O1023"/>
-    <mergeCell ref="P1023:R1023"/>
-    <mergeCell ref="S1023:T1023"/>
-    <mergeCell ref="A1004:C1004"/>
-    <mergeCell ref="A1011:T1011"/>
-    <mergeCell ref="D1012:E1012"/>
-    <mergeCell ref="F1012:I1012"/>
-    <mergeCell ref="J1012:L1012"/>
-    <mergeCell ref="M1012:O1012"/>
-    <mergeCell ref="P1012:R1012"/>
-    <mergeCell ref="S1012:T1012"/>
-    <mergeCell ref="A990:C990"/>
-    <mergeCell ref="A1001:T1001"/>
-    <mergeCell ref="D1002:E1002"/>
-    <mergeCell ref="F1002:I1002"/>
-    <mergeCell ref="J1002:L1002"/>
-    <mergeCell ref="M1002:O1002"/>
-    <mergeCell ref="P1002:R1002"/>
-    <mergeCell ref="S1002:T1002"/>
-    <mergeCell ref="A1046:T1046"/>
-    <mergeCell ref="D1047:E1047"/>
-    <mergeCell ref="F1047:I1047"/>
-    <mergeCell ref="J1047:L1047"/>
-    <mergeCell ref="M1047:O1047"/>
-    <mergeCell ref="P1047:R1047"/>
-    <mergeCell ref="S1047:T1047"/>
-    <mergeCell ref="A1037:C1037"/>
-    <mergeCell ref="A1045:T1045"/>
-    <mergeCell ref="A1025:C1025"/>
-    <mergeCell ref="A1034:T1034"/>
-    <mergeCell ref="D1035:E1035"/>
-    <mergeCell ref="F1035:I1035"/>
-    <mergeCell ref="J1035:L1035"/>
-    <mergeCell ref="M1035:O1035"/>
-    <mergeCell ref="P1035:R1035"/>
-    <mergeCell ref="S1035:T1035"/>
-    <mergeCell ref="A1070:C1070"/>
-    <mergeCell ref="A1077:T1077"/>
-    <mergeCell ref="D1078:E1078"/>
-    <mergeCell ref="F1078:I1078"/>
-    <mergeCell ref="J1078:L1078"/>
-    <mergeCell ref="M1078:O1078"/>
-    <mergeCell ref="P1078:R1078"/>
-    <mergeCell ref="S1078:T1078"/>
-    <mergeCell ref="A1059:C1059"/>
-    <mergeCell ref="A1067:T1067"/>
-    <mergeCell ref="D1068:E1068"/>
-    <mergeCell ref="F1068:I1068"/>
-    <mergeCell ref="J1068:L1068"/>
-    <mergeCell ref="M1068:O1068"/>
-    <mergeCell ref="P1068:R1068"/>
-    <mergeCell ref="S1068:T1068"/>
-    <mergeCell ref="A1049:C1049"/>
-    <mergeCell ref="A1056:T1056"/>
-    <mergeCell ref="D1057:E1057"/>
-    <mergeCell ref="F1057:I1057"/>
-    <mergeCell ref="J1057:L1057"/>
-    <mergeCell ref="M1057:O1057"/>
-    <mergeCell ref="P1057:R1057"/>
-    <mergeCell ref="S1057:T1057"/>
-    <mergeCell ref="A1101:C1101"/>
-    <mergeCell ref="A1108:T1108"/>
-    <mergeCell ref="D1109:E1109"/>
-    <mergeCell ref="F1109:I1109"/>
-    <mergeCell ref="J1109:L1109"/>
-    <mergeCell ref="M1109:O1109"/>
-    <mergeCell ref="P1109:R1109"/>
-    <mergeCell ref="S1109:T1109"/>
-    <mergeCell ref="A1090:C1090"/>
-    <mergeCell ref="A1098:T1098"/>
-    <mergeCell ref="D1099:E1099"/>
-    <mergeCell ref="F1099:I1099"/>
-    <mergeCell ref="J1099:L1099"/>
-    <mergeCell ref="M1099:O1099"/>
-    <mergeCell ref="P1099:R1099"/>
-    <mergeCell ref="S1099:T1099"/>
-    <mergeCell ref="A1080:C1080"/>
-    <mergeCell ref="A1087:T1087"/>
-    <mergeCell ref="D1088:E1088"/>
-    <mergeCell ref="F1088:I1088"/>
-    <mergeCell ref="J1088:L1088"/>
-    <mergeCell ref="M1088:O1088"/>
-    <mergeCell ref="P1088:R1088"/>
-    <mergeCell ref="S1088:T1088"/>
-    <mergeCell ref="A1131:C1131"/>
-    <mergeCell ref="A1141:T1141"/>
-    <mergeCell ref="D1142:E1142"/>
-    <mergeCell ref="F1142:I1142"/>
-    <mergeCell ref="J1142:L1142"/>
-    <mergeCell ref="M1142:O1142"/>
-    <mergeCell ref="P1142:R1142"/>
-    <mergeCell ref="S1142:T1142"/>
-    <mergeCell ref="A1121:C1121"/>
-    <mergeCell ref="A1128:T1128"/>
-    <mergeCell ref="D1129:E1129"/>
-    <mergeCell ref="F1129:I1129"/>
-    <mergeCell ref="J1129:L1129"/>
-    <mergeCell ref="M1129:O1129"/>
-    <mergeCell ref="P1129:R1129"/>
-    <mergeCell ref="S1129:T1129"/>
-    <mergeCell ref="A1111:C1111"/>
-    <mergeCell ref="A1118:T1118"/>
-    <mergeCell ref="D1119:E1119"/>
-    <mergeCell ref="F1119:I1119"/>
-    <mergeCell ref="J1119:L1119"/>
-    <mergeCell ref="M1119:O1119"/>
-    <mergeCell ref="P1119:R1119"/>
-    <mergeCell ref="S1119:T1119"/>
-    <mergeCell ref="A1164:C1164"/>
-    <mergeCell ref="A1171:T1171"/>
-    <mergeCell ref="A1154:C1154"/>
-    <mergeCell ref="A1161:T1161"/>
-    <mergeCell ref="D1162:E1162"/>
-    <mergeCell ref="F1162:I1162"/>
-    <mergeCell ref="J1162:L1162"/>
-    <mergeCell ref="M1162:O1162"/>
-    <mergeCell ref="P1162:R1162"/>
-    <mergeCell ref="S1162:T1162"/>
-    <mergeCell ref="A1144:C1144"/>
-    <mergeCell ref="A1151:T1151"/>
-    <mergeCell ref="D1152:E1152"/>
-    <mergeCell ref="F1152:I1152"/>
-    <mergeCell ref="J1152:L1152"/>
-    <mergeCell ref="M1152:O1152"/>
-    <mergeCell ref="P1152:R1152"/>
-    <mergeCell ref="S1152:T1152"/>
-    <mergeCell ref="A1185:C1185"/>
-    <mergeCell ref="A1201:T1201"/>
-    <mergeCell ref="D1202:E1202"/>
-    <mergeCell ref="F1202:I1202"/>
-    <mergeCell ref="J1202:L1202"/>
-    <mergeCell ref="M1202:O1202"/>
-    <mergeCell ref="P1202:R1202"/>
-    <mergeCell ref="S1202:T1202"/>
-    <mergeCell ref="A1175:C1175"/>
-    <mergeCell ref="A1182:T1182"/>
-    <mergeCell ref="D1183:E1183"/>
-    <mergeCell ref="F1183:I1183"/>
-    <mergeCell ref="J1183:L1183"/>
-    <mergeCell ref="M1183:O1183"/>
-    <mergeCell ref="P1183:R1183"/>
-    <mergeCell ref="S1183:T1183"/>
-    <mergeCell ref="A1172:T1172"/>
-    <mergeCell ref="D1173:E1173"/>
-    <mergeCell ref="F1173:I1173"/>
-    <mergeCell ref="J1173:L1173"/>
-    <mergeCell ref="M1173:O1173"/>
-    <mergeCell ref="P1173:R1173"/>
-    <mergeCell ref="S1173:T1173"/>
-    <mergeCell ref="A1228:C1228"/>
-    <mergeCell ref="A1244:T1244"/>
-    <mergeCell ref="D1245:E1245"/>
-    <mergeCell ref="F1245:I1245"/>
-    <mergeCell ref="J1245:L1245"/>
-    <mergeCell ref="M1245:O1245"/>
-    <mergeCell ref="P1245:R1245"/>
-    <mergeCell ref="S1245:T1245"/>
-    <mergeCell ref="A1218:C1218"/>
-    <mergeCell ref="A1225:T1225"/>
-    <mergeCell ref="D1226:E1226"/>
-    <mergeCell ref="F1226:I1226"/>
-    <mergeCell ref="J1226:L1226"/>
-    <mergeCell ref="M1226:O1226"/>
-    <mergeCell ref="P1226:R1226"/>
-    <mergeCell ref="S1226:T1226"/>
-    <mergeCell ref="A1204:C1204"/>
-    <mergeCell ref="A1215:T1215"/>
-    <mergeCell ref="D1216:E1216"/>
-    <mergeCell ref="F1216:I1216"/>
-    <mergeCell ref="J1216:L1216"/>
-    <mergeCell ref="M1216:O1216"/>
-    <mergeCell ref="P1216:R1216"/>
-    <mergeCell ref="S1216:T1216"/>
-    <mergeCell ref="A1277:C1277"/>
-    <mergeCell ref="A1284:T1284"/>
-    <mergeCell ref="D1285:E1285"/>
-    <mergeCell ref="F1285:I1285"/>
-    <mergeCell ref="J1285:L1285"/>
-    <mergeCell ref="M1285:O1285"/>
-    <mergeCell ref="P1285:R1285"/>
-    <mergeCell ref="S1285:T1285"/>
-    <mergeCell ref="A1261:C1261"/>
-    <mergeCell ref="A1274:T1274"/>
-    <mergeCell ref="D1275:E1275"/>
-    <mergeCell ref="F1275:I1275"/>
-    <mergeCell ref="J1275:L1275"/>
-    <mergeCell ref="M1275:O1275"/>
-    <mergeCell ref="P1275:R1275"/>
-    <mergeCell ref="S1275:T1275"/>
-    <mergeCell ref="A1247:C1247"/>
-    <mergeCell ref="A1258:T1258"/>
-    <mergeCell ref="D1259:E1259"/>
-    <mergeCell ref="F1259:I1259"/>
-    <mergeCell ref="J1259:L1259"/>
-    <mergeCell ref="M1259:O1259"/>
-    <mergeCell ref="P1259:R1259"/>
-    <mergeCell ref="S1259:T1259"/>
-    <mergeCell ref="A1321:C1321"/>
-    <mergeCell ref="A1335:T1335"/>
-    <mergeCell ref="D1336:E1336"/>
-    <mergeCell ref="F1336:I1336"/>
-    <mergeCell ref="J1336:L1336"/>
-    <mergeCell ref="M1336:O1336"/>
-    <mergeCell ref="P1336:R1336"/>
-    <mergeCell ref="S1336:T1336"/>
-    <mergeCell ref="A1307:C1307"/>
-    <mergeCell ref="A1318:T1318"/>
-    <mergeCell ref="D1319:E1319"/>
-    <mergeCell ref="F1319:I1319"/>
-    <mergeCell ref="J1319:L1319"/>
-    <mergeCell ref="M1319:O1319"/>
-    <mergeCell ref="P1319:R1319"/>
-    <mergeCell ref="S1319:T1319"/>
-    <mergeCell ref="A1287:C1287"/>
-    <mergeCell ref="A1304:T1304"/>
-    <mergeCell ref="D1305:E1305"/>
-    <mergeCell ref="F1305:I1305"/>
-    <mergeCell ref="J1305:L1305"/>
-    <mergeCell ref="M1305:O1305"/>
-    <mergeCell ref="P1305:R1305"/>
-    <mergeCell ref="S1305:T1305"/>
-    <mergeCell ref="A1347:C1347"/>
-    <mergeCell ref="A1353:T1353"/>
-    <mergeCell ref="D1354:E1354"/>
-    <mergeCell ref="F1354:I1354"/>
-    <mergeCell ref="J1354:L1354"/>
-    <mergeCell ref="M1354:O1354"/>
-    <mergeCell ref="P1354:R1354"/>
-    <mergeCell ref="S1354:T1354"/>
-    <mergeCell ref="A1344:T1344"/>
-    <mergeCell ref="D1345:E1345"/>
-    <mergeCell ref="F1345:I1345"/>
-    <mergeCell ref="J1345:L1345"/>
-    <mergeCell ref="M1345:O1345"/>
-    <mergeCell ref="P1345:R1345"/>
-    <mergeCell ref="S1345:T1345"/>
-    <mergeCell ref="A1338:C1338"/>
-    <mergeCell ref="A1376:C1376"/>
-    <mergeCell ref="A1382:T1382"/>
-    <mergeCell ref="D1383:E1383"/>
-    <mergeCell ref="F1383:I1383"/>
-    <mergeCell ref="J1383:L1383"/>
-    <mergeCell ref="M1383:O1383"/>
-    <mergeCell ref="P1383:R1383"/>
-    <mergeCell ref="S1383:T1383"/>
-    <mergeCell ref="A1367:C1367"/>
-    <mergeCell ref="A1373:T1373"/>
-    <mergeCell ref="D1374:E1374"/>
-    <mergeCell ref="F1374:I1374"/>
-    <mergeCell ref="J1374:L1374"/>
-    <mergeCell ref="M1374:O1374"/>
-    <mergeCell ref="P1374:R1374"/>
-    <mergeCell ref="S1374:T1374"/>
-    <mergeCell ref="A1356:C1356"/>
-    <mergeCell ref="A1364:T1364"/>
-    <mergeCell ref="D1365:E1365"/>
-    <mergeCell ref="F1365:I1365"/>
-    <mergeCell ref="J1365:L1365"/>
-    <mergeCell ref="M1365:O1365"/>
-    <mergeCell ref="P1365:R1365"/>
-    <mergeCell ref="S1365:T1365"/>
-    <mergeCell ref="A1403:C1403"/>
-    <mergeCell ref="A1409:T1409"/>
-    <mergeCell ref="D1410:E1410"/>
-    <mergeCell ref="F1410:I1410"/>
-    <mergeCell ref="J1410:L1410"/>
-    <mergeCell ref="M1410:O1410"/>
-    <mergeCell ref="P1410:R1410"/>
-    <mergeCell ref="S1410:T1410"/>
-    <mergeCell ref="A1394:C1394"/>
-    <mergeCell ref="A1400:T1400"/>
-    <mergeCell ref="D1401:E1401"/>
-    <mergeCell ref="F1401:I1401"/>
-    <mergeCell ref="J1401:L1401"/>
-    <mergeCell ref="M1401:O1401"/>
-    <mergeCell ref="P1401:R1401"/>
-    <mergeCell ref="S1401:T1401"/>
-    <mergeCell ref="A1385:C1385"/>
-    <mergeCell ref="A1391:T1391"/>
-    <mergeCell ref="D1392:E1392"/>
-    <mergeCell ref="F1392:I1392"/>
-    <mergeCell ref="J1392:L1392"/>
-    <mergeCell ref="M1392:O1392"/>
-    <mergeCell ref="P1392:R1392"/>
-    <mergeCell ref="S1392:T1392"/>
-    <mergeCell ref="A1430:C1430"/>
-    <mergeCell ref="A1439:T1439"/>
-    <mergeCell ref="D1440:E1440"/>
-    <mergeCell ref="F1440:I1440"/>
-    <mergeCell ref="J1440:L1440"/>
-    <mergeCell ref="M1440:O1440"/>
-    <mergeCell ref="P1440:R1440"/>
-    <mergeCell ref="S1440:T1440"/>
-    <mergeCell ref="A1421:C1421"/>
-    <mergeCell ref="A1427:T1427"/>
-    <mergeCell ref="D1428:E1428"/>
-    <mergeCell ref="F1428:I1428"/>
-    <mergeCell ref="J1428:L1428"/>
-    <mergeCell ref="M1428:O1428"/>
-    <mergeCell ref="P1428:R1428"/>
-    <mergeCell ref="S1428:T1428"/>
-    <mergeCell ref="A1412:C1412"/>
-    <mergeCell ref="A1418:T1418"/>
-    <mergeCell ref="D1419:E1419"/>
-    <mergeCell ref="F1419:I1419"/>
-    <mergeCell ref="J1419:L1419"/>
-    <mergeCell ref="M1419:O1419"/>
-    <mergeCell ref="P1419:R1419"/>
-    <mergeCell ref="S1419:T1419"/>
-    <mergeCell ref="A1455:C1455"/>
-    <mergeCell ref="A1462:T1462"/>
-    <mergeCell ref="D1463:E1463"/>
-    <mergeCell ref="F1463:I1463"/>
-    <mergeCell ref="J1463:L1463"/>
-    <mergeCell ref="M1463:O1463"/>
-    <mergeCell ref="P1463:R1463"/>
-    <mergeCell ref="S1463:T1463"/>
-    <mergeCell ref="A1452:T1452"/>
-    <mergeCell ref="D1453:E1453"/>
-    <mergeCell ref="F1453:I1453"/>
-    <mergeCell ref="J1453:L1453"/>
-    <mergeCell ref="M1453:O1453"/>
-    <mergeCell ref="P1453:R1453"/>
-    <mergeCell ref="S1453:T1453"/>
-    <mergeCell ref="A1442:C1442"/>
-    <mergeCell ref="A1451:T1451"/>
-    <mergeCell ref="A1485:C1485"/>
-    <mergeCell ref="A1492:T1492"/>
-    <mergeCell ref="D1493:E1493"/>
-    <mergeCell ref="F1493:I1493"/>
-    <mergeCell ref="J1493:L1493"/>
-    <mergeCell ref="M1493:O1493"/>
-    <mergeCell ref="P1493:R1493"/>
-    <mergeCell ref="S1493:T1493"/>
-    <mergeCell ref="A1475:C1475"/>
-    <mergeCell ref="A1482:T1482"/>
-    <mergeCell ref="D1483:E1483"/>
-    <mergeCell ref="F1483:I1483"/>
-    <mergeCell ref="J1483:L1483"/>
-    <mergeCell ref="M1483:O1483"/>
-    <mergeCell ref="P1483:R1483"/>
-    <mergeCell ref="S1483:T1483"/>
-    <mergeCell ref="A1465:C1465"/>
-    <mergeCell ref="A1472:T1472"/>
-    <mergeCell ref="D1473:E1473"/>
-    <mergeCell ref="F1473:I1473"/>
-    <mergeCell ref="J1473:L1473"/>
-    <mergeCell ref="M1473:O1473"/>
-    <mergeCell ref="P1473:R1473"/>
-    <mergeCell ref="S1473:T1473"/>
-    <mergeCell ref="A1515:C1515"/>
-    <mergeCell ref="A1521:T1521"/>
-    <mergeCell ref="D1522:E1522"/>
-    <mergeCell ref="F1522:I1522"/>
-    <mergeCell ref="J1522:L1522"/>
-    <mergeCell ref="M1522:O1522"/>
-    <mergeCell ref="P1522:R1522"/>
-    <mergeCell ref="S1522:T1522"/>
-    <mergeCell ref="A1505:C1505"/>
-    <mergeCell ref="A1512:T1512"/>
-    <mergeCell ref="D1513:E1513"/>
-    <mergeCell ref="F1513:I1513"/>
-    <mergeCell ref="J1513:L1513"/>
-    <mergeCell ref="M1513:O1513"/>
-    <mergeCell ref="P1513:R1513"/>
-    <mergeCell ref="S1513:T1513"/>
-    <mergeCell ref="A1495:C1495"/>
-    <mergeCell ref="A1502:T1502"/>
-    <mergeCell ref="D1503:E1503"/>
-    <mergeCell ref="F1503:I1503"/>
-    <mergeCell ref="J1503:L1503"/>
-    <mergeCell ref="M1503:O1503"/>
-    <mergeCell ref="P1503:R1503"/>
-    <mergeCell ref="S1503:T1503"/>
-    <mergeCell ref="A1542:C1542"/>
-    <mergeCell ref="A1551:T1551"/>
-    <mergeCell ref="D1552:E1552"/>
-    <mergeCell ref="F1552:I1552"/>
-    <mergeCell ref="J1552:L1552"/>
-    <mergeCell ref="M1552:O1552"/>
-    <mergeCell ref="P1552:R1552"/>
-    <mergeCell ref="S1552:T1552"/>
-    <mergeCell ref="A1533:C1533"/>
-    <mergeCell ref="A1539:T1539"/>
-    <mergeCell ref="D1540:E1540"/>
-    <mergeCell ref="F1540:I1540"/>
-    <mergeCell ref="J1540:L1540"/>
-    <mergeCell ref="M1540:O1540"/>
-    <mergeCell ref="P1540:R1540"/>
-    <mergeCell ref="S1540:T1540"/>
-    <mergeCell ref="A1524:C1524"/>
-    <mergeCell ref="A1530:T1530"/>
-    <mergeCell ref="D1531:E1531"/>
-    <mergeCell ref="F1531:I1531"/>
-    <mergeCell ref="J1531:L1531"/>
-    <mergeCell ref="M1531:O1531"/>
-    <mergeCell ref="P1531:R1531"/>
-    <mergeCell ref="S1531:T1531"/>
-    <mergeCell ref="A1575:C1575"/>
-    <mergeCell ref="A1590:T1590"/>
-    <mergeCell ref="D1591:E1591"/>
-    <mergeCell ref="F1591:I1591"/>
-    <mergeCell ref="J1591:L1591"/>
-    <mergeCell ref="M1591:O1591"/>
-    <mergeCell ref="P1591:R1591"/>
-    <mergeCell ref="S1591:T1591"/>
-    <mergeCell ref="A1563:C1563"/>
-    <mergeCell ref="A1572:T1572"/>
-    <mergeCell ref="D1573:E1573"/>
-    <mergeCell ref="F1573:I1573"/>
-    <mergeCell ref="J1573:L1573"/>
-    <mergeCell ref="M1573:O1573"/>
-    <mergeCell ref="P1573:R1573"/>
-    <mergeCell ref="S1573:T1573"/>
-    <mergeCell ref="A1554:C1554"/>
-    <mergeCell ref="A1560:T1560"/>
-    <mergeCell ref="D1561:E1561"/>
-    <mergeCell ref="F1561:I1561"/>
-    <mergeCell ref="J1561:L1561"/>
-    <mergeCell ref="M1561:O1561"/>
-    <mergeCell ref="P1561:R1561"/>
-    <mergeCell ref="S1561:T1561"/>
-    <mergeCell ref="A1616:C1616"/>
-    <mergeCell ref="A1623:T1623"/>
-    <mergeCell ref="D1624:E1624"/>
-    <mergeCell ref="F1624:I1624"/>
-    <mergeCell ref="J1624:L1624"/>
-    <mergeCell ref="M1624:O1624"/>
-    <mergeCell ref="P1624:R1624"/>
-    <mergeCell ref="S1624:T1624"/>
-    <mergeCell ref="A1606:C1606"/>
-    <mergeCell ref="A1613:T1613"/>
-    <mergeCell ref="D1614:E1614"/>
-    <mergeCell ref="F1614:I1614"/>
-    <mergeCell ref="J1614:L1614"/>
-    <mergeCell ref="M1614:O1614"/>
-    <mergeCell ref="P1614:R1614"/>
-    <mergeCell ref="S1614:T1614"/>
-    <mergeCell ref="A1593:C1593"/>
-    <mergeCell ref="A1603:T1603"/>
-    <mergeCell ref="D1604:E1604"/>
-    <mergeCell ref="F1604:I1604"/>
-    <mergeCell ref="J1604:L1604"/>
-    <mergeCell ref="M1604:O1604"/>
-    <mergeCell ref="P1604:R1604"/>
-    <mergeCell ref="S1604:T1604"/>
-    <mergeCell ref="A1648:C1648"/>
-    <mergeCell ref="A1654:T1654"/>
-    <mergeCell ref="D1655:E1655"/>
-    <mergeCell ref="F1655:I1655"/>
-    <mergeCell ref="J1655:L1655"/>
-    <mergeCell ref="M1655:O1655"/>
-    <mergeCell ref="P1655:R1655"/>
-    <mergeCell ref="S1655:T1655"/>
-    <mergeCell ref="A1636:C1636"/>
-    <mergeCell ref="A1645:T1645"/>
-    <mergeCell ref="D1646:E1646"/>
-    <mergeCell ref="F1646:I1646"/>
-    <mergeCell ref="J1646:L1646"/>
-    <mergeCell ref="M1646:O1646"/>
-    <mergeCell ref="P1646:R1646"/>
-    <mergeCell ref="S1646:T1646"/>
-    <mergeCell ref="A1626:C1626"/>
-    <mergeCell ref="A1633:T1633"/>
-    <mergeCell ref="D1634:E1634"/>
-    <mergeCell ref="F1634:I1634"/>
-    <mergeCell ref="J1634:L1634"/>
-    <mergeCell ref="M1634:O1634"/>
-    <mergeCell ref="P1634:R1634"/>
-    <mergeCell ref="S1634:T1634"/>
-    <mergeCell ref="A1679:C1679"/>
-    <mergeCell ref="A1685:T1685"/>
-    <mergeCell ref="D1686:E1686"/>
-    <mergeCell ref="F1686:I1686"/>
-    <mergeCell ref="J1686:L1686"/>
-    <mergeCell ref="M1686:O1686"/>
-    <mergeCell ref="P1686:R1686"/>
-    <mergeCell ref="S1686:T1686"/>
-    <mergeCell ref="A1667:C1667"/>
-    <mergeCell ref="A1676:T1676"/>
-    <mergeCell ref="D1677:E1677"/>
-    <mergeCell ref="F1677:I1677"/>
-    <mergeCell ref="J1677:L1677"/>
-    <mergeCell ref="M1677:O1677"/>
-    <mergeCell ref="P1677:R1677"/>
-    <mergeCell ref="S1677:T1677"/>
-    <mergeCell ref="A1657:C1657"/>
-    <mergeCell ref="A1664:T1664"/>
-    <mergeCell ref="D1665:E1665"/>
-    <mergeCell ref="F1665:I1665"/>
-    <mergeCell ref="J1665:L1665"/>
-    <mergeCell ref="M1665:O1665"/>
-    <mergeCell ref="P1665:R1665"/>
-    <mergeCell ref="S1665:T1665"/>
-    <mergeCell ref="A1712:C1712"/>
-    <mergeCell ref="A1721:T1721"/>
-    <mergeCell ref="D1722:E1722"/>
-    <mergeCell ref="F1722:I1722"/>
-    <mergeCell ref="J1722:L1722"/>
-    <mergeCell ref="M1722:O1722"/>
-    <mergeCell ref="P1722:R1722"/>
-    <mergeCell ref="S1722:T1722"/>
-    <mergeCell ref="A1700:C1700"/>
-    <mergeCell ref="A1709:T1709"/>
-    <mergeCell ref="D1710:E1710"/>
-    <mergeCell ref="F1710:I1710"/>
-    <mergeCell ref="J1710:L1710"/>
-    <mergeCell ref="M1710:O1710"/>
-    <mergeCell ref="P1710:R1710"/>
-    <mergeCell ref="S1710:T1710"/>
-    <mergeCell ref="A1688:C1688"/>
-    <mergeCell ref="A1697:T1697"/>
-    <mergeCell ref="D1698:E1698"/>
-    <mergeCell ref="F1698:I1698"/>
-    <mergeCell ref="J1698:L1698"/>
-    <mergeCell ref="M1698:O1698"/>
-    <mergeCell ref="P1698:R1698"/>
-    <mergeCell ref="S1698:T1698"/>
-    <mergeCell ref="A1748:C1748"/>
-    <mergeCell ref="A1757:T1757"/>
-    <mergeCell ref="D1758:E1758"/>
-    <mergeCell ref="F1758:I1758"/>
-    <mergeCell ref="J1758:L1758"/>
-    <mergeCell ref="M1758:O1758"/>
-    <mergeCell ref="P1758:R1758"/>
-    <mergeCell ref="S1758:T1758"/>
-    <mergeCell ref="A1736:C1736"/>
-    <mergeCell ref="A1745:T1745"/>
-    <mergeCell ref="D1746:E1746"/>
-    <mergeCell ref="F1746:I1746"/>
-    <mergeCell ref="J1746:L1746"/>
-    <mergeCell ref="M1746:O1746"/>
-    <mergeCell ref="P1746:R1746"/>
-    <mergeCell ref="S1746:T1746"/>
-    <mergeCell ref="A1724:C1724"/>
-    <mergeCell ref="A1733:T1733"/>
-    <mergeCell ref="D1734:E1734"/>
-    <mergeCell ref="F1734:I1734"/>
-    <mergeCell ref="J1734:L1734"/>
-    <mergeCell ref="M1734:O1734"/>
-    <mergeCell ref="P1734:R1734"/>
-    <mergeCell ref="S1734:T1734"/>
-    <mergeCell ref="A1784:C1784"/>
-    <mergeCell ref="A1793:T1793"/>
-    <mergeCell ref="D1794:E1794"/>
-    <mergeCell ref="F1794:I1794"/>
-    <mergeCell ref="J1794:L1794"/>
-    <mergeCell ref="M1794:O1794"/>
-    <mergeCell ref="P1794:R1794"/>
-    <mergeCell ref="S1794:T1794"/>
-    <mergeCell ref="A1772:C1772"/>
-    <mergeCell ref="A1781:T1781"/>
-    <mergeCell ref="D1782:E1782"/>
-    <mergeCell ref="F1782:I1782"/>
-    <mergeCell ref="J1782:L1782"/>
-    <mergeCell ref="M1782:O1782"/>
-    <mergeCell ref="P1782:R1782"/>
-    <mergeCell ref="S1782:T1782"/>
-    <mergeCell ref="A1760:C1760"/>
-    <mergeCell ref="A1769:T1769"/>
-    <mergeCell ref="D1770:E1770"/>
-    <mergeCell ref="F1770:I1770"/>
-    <mergeCell ref="J1770:L1770"/>
-    <mergeCell ref="M1770:O1770"/>
-    <mergeCell ref="P1770:R1770"/>
-    <mergeCell ref="S1770:T1770"/>
-    <mergeCell ref="A1820:C1820"/>
-    <mergeCell ref="A1828:T1828"/>
-    <mergeCell ref="D1829:E1829"/>
-    <mergeCell ref="F1829:I1829"/>
-    <mergeCell ref="J1829:L1829"/>
-    <mergeCell ref="M1829:O1829"/>
-    <mergeCell ref="P1829:R1829"/>
-    <mergeCell ref="S1829:T1829"/>
-    <mergeCell ref="A1808:C1808"/>
-    <mergeCell ref="A1817:T1817"/>
-    <mergeCell ref="D1818:E1818"/>
-    <mergeCell ref="F1818:I1818"/>
-    <mergeCell ref="J1818:L1818"/>
-    <mergeCell ref="M1818:O1818"/>
-    <mergeCell ref="P1818:R1818"/>
-    <mergeCell ref="S1818:T1818"/>
-    <mergeCell ref="A1796:C1796"/>
-    <mergeCell ref="A1805:T1805"/>
-    <mergeCell ref="D1806:E1806"/>
-    <mergeCell ref="F1806:I1806"/>
-    <mergeCell ref="J1806:L1806"/>
-    <mergeCell ref="M1806:O1806"/>
-    <mergeCell ref="P1806:R1806"/>
-    <mergeCell ref="S1806:T1806"/>
-    <mergeCell ref="A1851:C1851"/>
-    <mergeCell ref="A1857:T1857"/>
-    <mergeCell ref="D1858:E1858"/>
-    <mergeCell ref="F1858:I1858"/>
-    <mergeCell ref="J1858:L1858"/>
-    <mergeCell ref="M1858:O1858"/>
-    <mergeCell ref="P1858:R1858"/>
-    <mergeCell ref="S1858:T1858"/>
-    <mergeCell ref="A1842:C1842"/>
-    <mergeCell ref="A1848:T1848"/>
-    <mergeCell ref="D1849:E1849"/>
-    <mergeCell ref="F1849:I1849"/>
-    <mergeCell ref="J1849:L1849"/>
-    <mergeCell ref="M1849:O1849"/>
-    <mergeCell ref="P1849:R1849"/>
-    <mergeCell ref="S1849:T1849"/>
-    <mergeCell ref="A1831:C1831"/>
-    <mergeCell ref="A1839:T1839"/>
-    <mergeCell ref="D1840:E1840"/>
-    <mergeCell ref="F1840:I1840"/>
-    <mergeCell ref="J1840:L1840"/>
-    <mergeCell ref="M1840:O1840"/>
-    <mergeCell ref="P1840:R1840"/>
-    <mergeCell ref="S1840:T1840"/>
-    <mergeCell ref="A1887:C1887"/>
-    <mergeCell ref="A1869:C1869"/>
-    <mergeCell ref="A1884:T1884"/>
-    <mergeCell ref="D1885:E1885"/>
-    <mergeCell ref="F1885:I1885"/>
-    <mergeCell ref="J1885:L1885"/>
-    <mergeCell ref="M1885:O1885"/>
-    <mergeCell ref="P1885:R1885"/>
-    <mergeCell ref="S1885:T1885"/>
-    <mergeCell ref="A1860:C1860"/>
-    <mergeCell ref="A1866:T1866"/>
-    <mergeCell ref="D1867:E1867"/>
-    <mergeCell ref="F1867:I1867"/>
-    <mergeCell ref="J1867:L1867"/>
-    <mergeCell ref="M1867:O1867"/>
-    <mergeCell ref="P1867:R1867"/>
-    <mergeCell ref="S1867:T1867"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1.08" bottom="0.48" header="0.3" footer="0.3"/>
